--- a/AAAI会议论文聚类分析/Dataset/File1.xlsx
+++ b/AAAI会议论文聚类分析/Dataset/File1.xlsx
@@ -541,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3020574364834632</v>
+        <v>0.3021269534064781</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.02377154952316819</v>
+        <v>-0.02434686050928481</v>
       </c>
     </row>
     <row r="3">
@@ -597,10 +597,10 @@
         <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2736233184173252</v>
+        <v>0.2737004367236124</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.03212200209713504</v>
+        <v>-0.03278959336455926</v>
       </c>
     </row>
     <row r="4">
@@ -651,10 +651,10 @@
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2122670991190506</v>
+        <v>-0.2123241267379568</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2059347849302611</v>
+        <v>-0.2061291102556571</v>
       </c>
     </row>
     <row r="5">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0142170907661409</v>
+        <v>-0.01424906436712851</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.07821639991575106</v>
+        <v>-0.07802740270407893</v>
       </c>
     </row>
     <row r="6">
@@ -773,10 +773,10 @@
         <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1131898747362011</v>
+        <v>0.1132689956141254</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02045729137509924</v>
+        <v>0.01926792159186937</v>
       </c>
     </row>
     <row r="7">
@@ -825,10 +825,10 @@
         <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1003215844396627</v>
+        <v>0.1003045877954339</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0160353862636286</v>
+        <v>0.01671113686167496</v>
       </c>
     </row>
     <row r="8">
@@ -875,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02226513128207714</v>
+        <v>0.0221987711655821</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003988025827338849</v>
+        <v>0.004400978367829219</v>
       </c>
     </row>
     <row r="9">
@@ -967,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2394625667816655</v>
+        <v>0.2395027734243838</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02560271791813844</v>
+        <v>-0.02629468332732368</v>
       </c>
     </row>
     <row r="10">
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03737986064016396</v>
+        <v>-0.03738027771792893</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01381644345399329</v>
+        <v>-0.01364833510384678</v>
       </c>
     </row>
     <row r="11">
@@ -1077,10 +1077,10 @@
         <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1871178593473588</v>
+        <v>0.1869988035138666</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01819038002276643</v>
+        <v>-0.01679180090335063</v>
       </c>
     </row>
     <row r="12">
@@ -1133,10 +1133,10 @@
         <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.07772577596452969</v>
+        <v>-0.0776487763750235</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1934644794899925</v>
+        <v>0.1930775126837276</v>
       </c>
     </row>
     <row r="13">
@@ -1193,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01804655099077487</v>
+        <v>0.01809030689770363</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04994738957609601</v>
+        <v>0.05063323148886932</v>
       </c>
     </row>
     <row r="14">
@@ -1245,10 +1245,10 @@
         <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1231201950602708</v>
+        <v>0.1231613958790429</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01014704319225204</v>
+        <v>-0.01016300164246715</v>
       </c>
     </row>
     <row r="15">
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.06151038012270429</v>
+        <v>-0.06157891349486447</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.07430863178461636</v>
+        <v>-0.07428449114597806</v>
       </c>
     </row>
     <row r="16">
@@ -1377,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1361097064070151</v>
+        <v>-0.1361252677201777</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2068590267640351</v>
+        <v>0.2069504492821745</v>
       </c>
     </row>
     <row r="17">
@@ -1437,10 +1437,10 @@
         <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07414029417197482</v>
+        <v>0.07411527761024865</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01398974894363319</v>
+        <v>-0.01375753746745577</v>
       </c>
     </row>
     <row r="18">
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.08676083694145639</v>
+        <v>-0.08667525350870316</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1032701029200849</v>
+        <v>-0.1023617563360815</v>
       </c>
     </row>
     <row r="19">
@@ -1547,10 +1547,10 @@
         <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>0.004778302038601446</v>
+        <v>0.004794649612819226</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01623728474628543</v>
+        <v>-0.01593064016406165</v>
       </c>
     </row>
     <row r="20">
@@ -1601,10 +1601,10 @@
         <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>0.193755813939231</v>
+        <v>0.1935947868778849</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.08930741274225736</v>
+        <v>-0.08810827936814768</v>
       </c>
     </row>
     <row r="21">
@@ -1653,10 +1653,10 @@
         <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1036904876338482</v>
+        <v>0.1035366702062336</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01188179445257015</v>
+        <v>-0.009357789043811824</v>
       </c>
     </row>
     <row r="22">
@@ -1717,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1006267761451713</v>
+        <v>-0.1006558319627687</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.03914723434847338</v>
+        <v>-0.0394830584858812</v>
       </c>
     </row>
     <row r="23">
@@ -1771,10 +1771,10 @@
         <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1251517410405551</v>
+        <v>-0.1250914475575534</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1185662736343677</v>
+        <v>0.118048944154487</v>
       </c>
     </row>
     <row r="24">
@@ -1829,10 +1829,10 @@
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09566301880041954</v>
+        <v>-0.09559256824569248</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01958227090684753</v>
+        <v>-0.01940606381404983</v>
       </c>
     </row>
     <row r="25">
@@ -1887,10 +1887,10 @@
         <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1647677557553645</v>
+        <v>0.1648005257588658</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005837636435844262</v>
+        <v>0.005999938170405458</v>
       </c>
     </row>
     <row r="26">
@@ -1941,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.04404204057295207</v>
+        <v>-0.04405378157884916</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2563341507863926</v>
+        <v>0.2560012952992308</v>
       </c>
     </row>
     <row r="27">
@@ -2007,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05073922703116669</v>
+        <v>0.05070190879168323</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01907284692539676</v>
+        <v>0.0192819219601694</v>
       </c>
     </row>
     <row r="28">
@@ -2057,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0263856573172145</v>
+        <v>-0.02638680791184518</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.01047221521385733</v>
+        <v>-0.01021527468050321</v>
       </c>
     </row>
     <row r="29">
@@ -2153,10 +2153,10 @@
         <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1321676192909482</v>
+        <v>-0.1320978360861993</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2540107572826318</v>
+        <v>0.2535608698593934</v>
       </c>
     </row>
     <row r="30">
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03170649707767652</v>
+        <v>0.03158887763765874</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1547638291469921</v>
+        <v>-0.1550814607008771</v>
       </c>
     </row>
     <row r="31">
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.03696602145942156</v>
+        <v>-0.03698920083301853</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.05572412123643514</v>
+        <v>-0.05539378254901905</v>
       </c>
     </row>
     <row r="32">
@@ -2319,10 +2319,10 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1738325646328285</v>
+        <v>-0.1738007158456676</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1646833505912193</v>
+        <v>-0.1645437288026308</v>
       </c>
     </row>
     <row r="33">
@@ -2377,10 +2377,10 @@
         <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1422197770119896</v>
+        <v>-0.1420886349444996</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2724302799988203</v>
+        <v>0.2721372885504242</v>
       </c>
     </row>
     <row r="34">
@@ -2429,10 +2429,10 @@
         <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1331869738036396</v>
+        <v>0.133132832536977</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.003562148135020495</v>
+        <v>-0.003043461518536779</v>
       </c>
     </row>
     <row r="35">
@@ -2481,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1098734395639327</v>
+        <v>0.1098525278406194</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.009924805203356276</v>
+        <v>-0.01081665481362631</v>
       </c>
     </row>
     <row r="36">
@@ -2533,10 +2533,10 @@
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1753672407712011</v>
+        <v>-0.1754392434344521</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.2108463646249998</v>
+        <v>-0.2111226440271142</v>
       </c>
     </row>
     <row r="37">
@@ -2617,10 +2617,10 @@
         <v>9</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.08283499857335661</v>
+        <v>-0.08281176957178231</v>
       </c>
       <c r="J37" t="n">
-        <v>0.09806713397889406</v>
+        <v>0.09758863926693728</v>
       </c>
     </row>
     <row r="38">
@@ -2677,10 +2677,10 @@
         <v>8</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1731612018296195</v>
+        <v>0.1731894382519959</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.02198459511621323</v>
+        <v>-0.02252541572152577</v>
       </c>
     </row>
     <row r="39">
@@ -2737,10 +2737,10 @@
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.157771874962924</v>
+        <v>-0.1578027085025449</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1632578831017089</v>
+        <v>-0.1633699443316249</v>
       </c>
     </row>
     <row r="40">
@@ -2791,10 +2791,10 @@
         <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1896899688977656</v>
+        <v>0.1897203325977032</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.06202932615760698</v>
+        <v>-0.06244513836160033</v>
       </c>
     </row>
     <row r="41">
@@ -2841,10 +2841,10 @@
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1564048955983318</v>
+        <v>-0.1563040541269066</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.2000708158317887</v>
+        <v>-0.1999914931660107</v>
       </c>
     </row>
     <row r="42">
@@ -2893,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1512597905262336</v>
+        <v>0.1512704876653337</v>
       </c>
       <c r="J42" t="n">
-        <v>0.007304849649359348</v>
+        <v>0.007336725139310623</v>
       </c>
     </row>
     <row r="43">
@@ -2957,10 +2957,10 @@
         <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.06393784117292817</v>
+        <v>-0.06388332555013247</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0279812922007596</v>
+        <v>0.02718169987741195</v>
       </c>
     </row>
     <row r="44">
@@ -3017,10 +3017,10 @@
         <v>8</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2152381424686538</v>
+        <v>0.2152890934029868</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.04825253671310031</v>
+        <v>-0.04938969628508617</v>
       </c>
     </row>
     <row r="45">
@@ -3109,10 +3109,10 @@
         <v>7</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06142989811556327</v>
+        <v>0.0613944010408663</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1257604431870517</v>
+        <v>0.1262828341035691</v>
       </c>
     </row>
     <row r="46">
@@ -3159,10 +3159,10 @@
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1380298891801385</v>
+        <v>-0.1380175165985363</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.1575992649935988</v>
+        <v>-0.1575792486197885</v>
       </c>
     </row>
     <row r="47">
@@ -3227,10 +3227,10 @@
         <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.02744943428872071</v>
+        <v>-0.02743067388709639</v>
       </c>
       <c r="J47" t="n">
-        <v>0.05476620385224511</v>
+        <v>0.05482339805322455</v>
       </c>
     </row>
     <row r="48">
@@ -3281,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1295785930957808</v>
+        <v>0.1296729635904563</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.02006413495058528</v>
+        <v>-0.02178032516063299</v>
       </c>
     </row>
     <row r="49">
@@ -3331,10 +3331,10 @@
         <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1332040229249579</v>
+        <v>0.1332442443893093</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.02078996471705383</v>
+        <v>-0.02114895351326334</v>
       </c>
     </row>
     <row r="50">
@@ -3401,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06841829841956934</v>
+        <v>0.06837668256132105</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.01726001734685161</v>
+        <v>-0.0169881795734962</v>
       </c>
     </row>
     <row r="51">
@@ -3461,10 +3461,10 @@
         <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.08756800219851922</v>
+        <v>-0.08746717218479498</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1458909922234764</v>
+        <v>0.1457249628421157</v>
       </c>
     </row>
     <row r="52">
@@ -3511,10 +3511,10 @@
         <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01422341554778689</v>
+        <v>0.01419359269711508</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.03394194939065721</v>
+        <v>-0.03346999610919569</v>
       </c>
     </row>
     <row r="53">
@@ -3563,10 +3563,10 @@
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04577360970312263</v>
+        <v>0.04578791032890232</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.03562860096322735</v>
+        <v>-0.03572115609367314</v>
       </c>
     </row>
     <row r="54">
@@ -3621,10 +3621,10 @@
         <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03644488493720365</v>
+        <v>0.03649017891979819</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.05305544788118963</v>
+        <v>-0.05369503722725422</v>
       </c>
     </row>
     <row r="55">
@@ -3677,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>0.07305020644849965</v>
+        <v>0.07304969236232695</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.005762924776084972</v>
+        <v>-0.005303820601260585</v>
       </c>
     </row>
     <row r="56">
@@ -3767,10 +3767,10 @@
         <v>8</v>
       </c>
       <c r="I56" t="n">
-        <v>0.122866583364452</v>
+        <v>0.1229398230265028</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03692274374474518</v>
+        <v>0.0362889165754522</v>
       </c>
     </row>
     <row r="57">
@@ -3827,10 +3827,10 @@
         <v>9</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.02200493464713233</v>
+        <v>-0.02195613829681163</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.04048393121486177</v>
+        <v>-0.04124712799867882</v>
       </c>
     </row>
     <row r="58">
@@ -3885,10 +3885,10 @@
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.1326406966557674</v>
+        <v>-0.1326410782828012</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.02706209419009443</v>
+        <v>-0.02760499863102257</v>
       </c>
     </row>
     <row r="59">
@@ -3941,10 +3941,10 @@
         <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.2258140755696747</v>
+        <v>-0.2259433110891569</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.2914727632204757</v>
+        <v>-0.2919491903426645</v>
       </c>
     </row>
     <row r="60">
@@ -3991,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.006658174451456986</v>
+        <v>-0.006739220616483146</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01393964816144459</v>
+        <v>0.01517183988403631</v>
       </c>
     </row>
     <row r="61">
@@ -4051,10 +4051,10 @@
         <v>8</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1095471864136291</v>
+        <v>0.1095430466919197</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.004441631104458908</v>
+        <v>-0.004271402478249387</v>
       </c>
     </row>
     <row r="62">
@@ -4139,10 +4139,10 @@
         <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.1869963119615005</v>
+        <v>-0.1870062818567719</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.280598569167516</v>
+        <v>-0.2814485422597287</v>
       </c>
     </row>
     <row r="63">
@@ -4193,10 +4193,10 @@
         <v>9</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03025969761800398</v>
+        <v>0.03028594432928135</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.007293379897598647</v>
+        <v>-0.007640566803222545</v>
       </c>
     </row>
     <row r="64">
@@ -4249,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.00263697060483516</v>
+        <v>0.002666499042791145</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.06967178708571153</v>
+        <v>-0.07021564810070736</v>
       </c>
     </row>
     <row r="65">
@@ -4383,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.009828153651430341</v>
+        <v>-0.009814580761273185</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.06780617401571977</v>
+        <v>-0.06777085500516761</v>
       </c>
     </row>
     <row r="66">
@@ -4435,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.01844809559103961</v>
+        <v>-0.01846800181370808</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.03397919415603465</v>
+        <v>-0.03433596008505512</v>
       </c>
     </row>
     <row r="67">
@@ -4487,10 +4487,10 @@
         <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1780780271495875</v>
+        <v>-0.1781081892382284</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.12223047725188</v>
+        <v>-0.1224299756856822</v>
       </c>
     </row>
     <row r="68">
@@ -4547,10 +4547,10 @@
         <v>9</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.09579018284039915</v>
+        <v>-0.09568018901767535</v>
       </c>
       <c r="J68" t="n">
-        <v>0.07894589414707982</v>
+        <v>0.07800487527028596</v>
       </c>
     </row>
     <row r="69">
@@ -4613,10 +4613,10 @@
         <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.185250107885452</v>
+        <v>-0.1852710650595774</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.2207120875208445</v>
+        <v>-0.2209123578563842</v>
       </c>
     </row>
     <row r="70">
@@ -4663,10 +4663,10 @@
         <v>7</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.005580025165272657</v>
+        <v>-0.005573880598770449</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.001274504136754105</v>
+        <v>-0.0009494685067396753</v>
       </c>
     </row>
     <row r="71">
@@ -4739,10 +4739,10 @@
         <v>9</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1061563296510025</v>
+        <v>0.106174496570546</v>
       </c>
       <c r="J71" t="n">
-        <v>0.05071623100460321</v>
+        <v>0.05113126132107688</v>
       </c>
     </row>
     <row r="72">
@@ -4801,10 +4801,10 @@
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.1561669072209805</v>
+        <v>-0.1561825931199575</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.1265450235438713</v>
+        <v>-0.1266753330679555</v>
       </c>
     </row>
     <row r="73">
@@ -4859,10 +4859,10 @@
         <v>6</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.112103105533616</v>
+        <v>-0.1122639596537519</v>
       </c>
       <c r="J73" t="n">
-        <v>0.166978122591758</v>
+        <v>0.167486466408814</v>
       </c>
     </row>
     <row r="74">
@@ -4909,10 +4909,10 @@
         <v>8</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1867560116314511</v>
+        <v>0.1867840234872999</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.01438438647615432</v>
+        <v>-0.01427946413255143</v>
       </c>
     </row>
     <row r="75">
@@ -4967,10 +4967,10 @@
         <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0851494701915461</v>
+        <v>0.08513568906427155</v>
       </c>
       <c r="J75" t="n">
-        <v>0.01565616972032207</v>
+        <v>0.01582911809323818</v>
       </c>
     </row>
     <row r="76">
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0207844534634191</v>
+        <v>0.02063498942672547</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.08480227936804907</v>
+        <v>-0.08359458968630996</v>
       </c>
     </row>
     <row r="77">
@@ -5103,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07313959860631844</v>
+        <v>0.07313322984309625</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.02687688996343154</v>
+        <v>-0.02649099330005953</v>
       </c>
     </row>
     <row r="78">
@@ -5209,10 +5209,10 @@
         <v>9</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.1060661068039715</v>
+        <v>-0.1060437970751212</v>
       </c>
       <c r="J78" t="n">
-        <v>0.07738932384722814</v>
+        <v>0.07704137190768429</v>
       </c>
     </row>
     <row r="79">
@@ -5261,10 +5261,10 @@
         <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.2239686539558398</v>
+        <v>-0.2240941238383485</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.2800329131331792</v>
+        <v>-0.280564329752476</v>
       </c>
     </row>
     <row r="80">
@@ -5323,10 +5323,10 @@
         <v>9</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05628687901199221</v>
+        <v>0.05617351069112518</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01233469959866854</v>
+        <v>0.01324954511775462</v>
       </c>
     </row>
     <row r="81">
@@ -5381,10 +5381,10 @@
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.1773659490221701</v>
+        <v>-0.1773348207111456</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.1808118068213886</v>
+        <v>-0.1811019028498678</v>
       </c>
     </row>
     <row r="82">
@@ -5433,10 +5433,10 @@
         <v>9</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.06939282322991532</v>
+        <v>-0.06938237379680902</v>
       </c>
       <c r="J82" t="n">
-        <v>0.002604317598425417</v>
+        <v>0.002966844153235748</v>
       </c>
     </row>
     <row r="83">
@@ -5501,10 +5501,10 @@
         <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.004438041942072634</v>
+        <v>-0.004438695577195011</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.02077373466084049</v>
+        <v>-0.02015684192423637</v>
       </c>
     </row>
     <row r="84">
@@ -5571,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0810139045638596</v>
+        <v>0.08093844176141061</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.08739079357932877</v>
+        <v>-0.08758172260086357</v>
       </c>
     </row>
     <row r="85">
@@ -5627,10 +5627,10 @@
         <v>8</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1044183194683639</v>
+        <v>0.1043121686350857</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.01248033732780033</v>
+        <v>-0.01124854894253459</v>
       </c>
     </row>
     <row r="86">
@@ -5677,10 +5677,10 @@
         <v>9</v>
       </c>
       <c r="I86" t="n">
-        <v>0.04444313488513556</v>
+        <v>0.04443152136540409</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01745552191489526</v>
+        <v>0.0178556490933888</v>
       </c>
     </row>
     <row r="87">
@@ -5731,10 +5731,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.02143783872617742</v>
+        <v>-0.02141871551572005</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.0647083843203092</v>
+        <v>-0.06486417654822788</v>
       </c>
     </row>
     <row r="88">
@@ -5783,10 +5783,10 @@
         <v>8</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1684055580019409</v>
+        <v>0.1684185896189172</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.01555880425954398</v>
+        <v>-0.01543172226311811</v>
       </c>
     </row>
     <row r="89">
@@ -5855,10 +5855,10 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.08695154755384514</v>
+        <v>-0.08688647688797961</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.04033493399121234</v>
+        <v>-0.03970878020660903</v>
       </c>
     </row>
     <row r="90">
@@ -5913,10 +5913,10 @@
         <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1603429198900394</v>
+        <v>0.1603115067328388</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.0166598790307945</v>
+        <v>-0.01677414878213978</v>
       </c>
     </row>
     <row r="91">
@@ -5971,10 +5971,10 @@
         <v>8</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2204493198418735</v>
+        <v>0.2202942704316322</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.01273744063917819</v>
+        <v>-0.01075543079956298</v>
       </c>
     </row>
     <row r="92">
@@ -6021,10 +6021,10 @@
         <v>8</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1920293399120205</v>
+        <v>0.1920673890985852</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.00320064699917714</v>
+        <v>-0.003091993726917837</v>
       </c>
     </row>
     <row r="93">
@@ -6107,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="I93" t="n">
-        <v>0.01218386084545684</v>
+        <v>0.01221656856759646</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03507558550777676</v>
+        <v>0.03504087250010579</v>
       </c>
     </row>
     <row r="94">
@@ -6165,10 +6165,10 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.1382828858010336</v>
+        <v>-0.1382854690773339</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2436297233282805</v>
+        <v>0.2439810998265692</v>
       </c>
     </row>
     <row r="95">
@@ -6223,10 +6223,10 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.09216979373353443</v>
+        <v>-0.09218988420804256</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.05866995673789277</v>
+        <v>-0.05893564055724645</v>
       </c>
     </row>
     <row r="96">
@@ -6279,10 +6279,10 @@
         <v>8</v>
       </c>
       <c r="I96" t="n">
-        <v>0.253790253956886</v>
+        <v>0.2537948864053192</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.02916387783415834</v>
+        <v>-0.02971282107504681</v>
       </c>
     </row>
     <row r="97">
@@ -6361,10 +6361,10 @@
         <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.09770856879207694</v>
+        <v>-0.09756838029164615</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1246237675051317</v>
+        <v>0.1239883588666242</v>
       </c>
     </row>
     <row r="98">
@@ -6411,10 +6411,10 @@
         <v>8</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1007314469254086</v>
+        <v>0.1006876532080601</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.02443277366959172</v>
+        <v>-0.02379596381013576</v>
       </c>
     </row>
     <row r="99">
@@ -6471,10 +6471,10 @@
         <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1668164623053821</v>
+        <v>-0.1668557449172156</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.1578169280873634</v>
+        <v>-0.1580736541578993</v>
       </c>
     </row>
     <row r="100">
@@ -6527,10 +6527,10 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0.06405204636223293</v>
+        <v>0.06403862759388339</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.03215971255930049</v>
+        <v>-0.03255749396654575</v>
       </c>
     </row>
     <row r="101">
@@ -6583,10 +6583,10 @@
         <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.06928629271526415</v>
+        <v>-0.06935785485788076</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.04355483622071658</v>
+        <v>-0.04352797878751372</v>
       </c>
     </row>
     <row r="102">
@@ -6639,10 +6639,10 @@
         <v>9</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.08789442783053932</v>
+        <v>-0.08781303189414512</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06201215101851766</v>
+        <v>0.06094659249610836</v>
       </c>
     </row>
     <row r="103">
@@ -6709,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.01295634573357233</v>
+        <v>0.01291040499356565</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.05517407204116401</v>
+        <v>-0.05502170112548836</v>
       </c>
     </row>
     <row r="104">
@@ -6777,10 +6777,10 @@
         <v>9</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1458927954692445</v>
+        <v>0.1459368967758772</v>
       </c>
       <c r="J104" t="n">
-        <v>1.512560799994631e-05</v>
+        <v>-0.0005115367159225636</v>
       </c>
     </row>
     <row r="105">
@@ -6845,10 +6845,10 @@
         <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>0.04506600449583478</v>
+        <v>0.04506523034022591</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.03712925165599965</v>
+        <v>-0.03733819483490407</v>
       </c>
     </row>
     <row r="106">
@@ -6901,10 +6901,10 @@
         <v>9</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.02939147351498168</v>
+        <v>-0.0293990964135353</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0692116418871265</v>
+        <v>0.07098064088040121</v>
       </c>
     </row>
     <row r="107">
@@ -6991,10 +6991,10 @@
         <v>6</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.08557740410693647</v>
+        <v>-0.08568043529617966</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1309804044997235</v>
+        <v>0.1314085597691391</v>
       </c>
     </row>
     <row r="108">
@@ -7047,10 +7047,10 @@
         <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.04360519614196655</v>
+        <v>-0.04365434397092795</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.1934938206998934</v>
+        <v>-0.1936467936882747</v>
       </c>
     </row>
     <row r="109">
@@ -7157,10 +7157,10 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.1762835092199392</v>
+        <v>-0.1763038512096753</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2689520300125999</v>
+        <v>0.2692163576092801</v>
       </c>
     </row>
     <row r="110">
@@ -7211,10 +7211,10 @@
         <v>8</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2405590749917138</v>
+        <v>0.2404665254473781</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.02863424226927979</v>
+        <v>-0.02707112429863113</v>
       </c>
     </row>
     <row r="111">
@@ -7269,10 +7269,10 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.1133552417814344</v>
+        <v>-0.1133759043600077</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1182254579763215</v>
+        <v>0.1183968469301849</v>
       </c>
     </row>
     <row r="112">
@@ -7341,10 +7341,10 @@
         <v>5</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.2618189731103556</v>
+        <v>-0.2618166403445598</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.2650098734143713</v>
+        <v>-0.2653398514254792</v>
       </c>
     </row>
     <row r="113">
@@ -7405,10 +7405,10 @@
         <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.09396170152354387</v>
+        <v>-0.0940899784790922</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2006329217357956</v>
+        <v>0.2004360776527528</v>
       </c>
     </row>
     <row r="114">
@@ -7463,10 +7463,10 @@
         <v>7</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1275149515920306</v>
+        <v>0.1275619151950006</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.01116637381940787</v>
+        <v>-0.01156428051250656</v>
       </c>
     </row>
     <row r="115">
@@ -7529,10 +7529,10 @@
         <v>9</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.02134826222685375</v>
+        <v>-0.02129244791746817</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08739873931718893</v>
+        <v>0.08746331071294434</v>
       </c>
     </row>
     <row r="116">
@@ -7579,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.0813637349733123</v>
+        <v>-0.08133153581634008</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.01726915796569118</v>
+        <v>-0.01728306216539995</v>
       </c>
     </row>
     <row r="117">
@@ -7633,10 +7633,10 @@
         <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.1088814322918417</v>
+        <v>-0.1089529338993502</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1007829487193528</v>
+        <v>0.100759234269483</v>
       </c>
     </row>
     <row r="118">
@@ -7685,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.04743237516344306</v>
+        <v>0.04746324923490444</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.05768171437936324</v>
+        <v>-0.0575310032631754</v>
       </c>
     </row>
     <row r="119">
@@ -7737,10 +7737,10 @@
         <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.1685537508076252</v>
+        <v>-0.1686185869176626</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.1204582784252706</v>
+        <v>-0.1203865495761163</v>
       </c>
     </row>
     <row r="120">
@@ -7803,10 +7803,10 @@
         <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1320219148926189</v>
+        <v>0.1320278473983374</v>
       </c>
       <c r="J120" t="n">
-        <v>0.006410157280130696</v>
+        <v>0.006845803295381639</v>
       </c>
     </row>
     <row r="121">
@@ -7861,10 +7861,10 @@
         <v>7</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1024907499800455</v>
+        <v>0.1024923405106799</v>
       </c>
       <c r="J121" t="n">
-        <v>0.002165823267307662</v>
+        <v>0.002365469883355108</v>
       </c>
     </row>
     <row r="122">
@@ -7917,10 +7917,10 @@
         <v>9</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.05823652195202899</v>
+        <v>-0.05824816165865791</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.01559990193696181</v>
+        <v>-0.01544002713045863</v>
       </c>
     </row>
     <row r="123">
@@ -7975,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0902295883801978</v>
+        <v>0.09026572803129505</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.002830365230354023</v>
+        <v>-0.003124828063095099</v>
       </c>
     </row>
     <row r="124">
@@ -8041,10 +8041,10 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0.08560307039410789</v>
+        <v>0.0855940598651362</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.0167554386206361</v>
+        <v>-0.0174033616502913</v>
       </c>
     </row>
     <row r="125">
@@ -8103,10 +8103,10 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.143777327543134</v>
+        <v>-0.143801721961978</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2223572922914706</v>
+        <v>0.2231836988866727</v>
       </c>
     </row>
     <row r="126">
@@ -8175,10 +8175,10 @@
         <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.2270784984790503</v>
+        <v>-0.2269577775072827</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.2551335471673445</v>
+        <v>-0.2543495904949561</v>
       </c>
     </row>
     <row r="127">
@@ -8239,10 +8239,10 @@
         <v>8</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1185894259504557</v>
+        <v>0.118499606053331</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.01831362855541604</v>
+        <v>-0.0173107631446</v>
       </c>
     </row>
     <row r="128">
@@ -8313,10 +8313,10 @@
         <v>9</v>
       </c>
       <c r="I128" t="n">
-        <v>0.01920662762915929</v>
+        <v>0.01916713363820314</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03999301559927627</v>
+        <v>0.04143540762519198</v>
       </c>
     </row>
     <row r="129">
@@ -8377,10 +8377,10 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.1327441767679636</v>
+        <v>-0.1327894215204131</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2764064400825994</v>
+        <v>0.2770683588666796</v>
       </c>
     </row>
     <row r="130">
@@ -8427,10 +8427,10 @@
         <v>8</v>
       </c>
       <c r="I130" t="n">
-        <v>0.2480538834439279</v>
+        <v>0.2481200827943278</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.02515147840025928</v>
+        <v>-0.02565614432128687</v>
       </c>
     </row>
     <row r="131">
@@ -8489,10 +8489,10 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.1231995945472293</v>
+        <v>-0.1231994037777685</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2076208079990752</v>
+        <v>0.2071700619161215</v>
       </c>
     </row>
     <row r="132">
@@ -8545,10 +8545,10 @@
         <v>8</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1022935204592553</v>
+        <v>0.1023288654538678</v>
       </c>
       <c r="J132" t="n">
-        <v>0.008960737122981762</v>
+        <v>0.008819082289922561</v>
       </c>
     </row>
     <row r="133">
@@ -8603,10 +8603,10 @@
         <v>9</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.07358299716731258</v>
+        <v>-0.07352283069727436</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05922631954847838</v>
+        <v>0.05835259799665522</v>
       </c>
     </row>
     <row r="134">
@@ -8653,10 +8653,10 @@
         <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0.02739927034293889</v>
+        <v>0.02738760886993441</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02215695349832316</v>
+        <v>0.0216721645550609</v>
       </c>
     </row>
     <row r="135">
@@ -8743,10 +8743,10 @@
         <v>9</v>
       </c>
       <c r="I135" t="n">
-        <v>0.01935740164195167</v>
+        <v>0.0193532073723067</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.013833968929047</v>
+        <v>-0.01389577116614255</v>
       </c>
     </row>
     <row r="136">
@@ -8821,10 +8821,10 @@
         <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.2022895581454836</v>
+        <v>-0.2021441561080404</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.215087309832411</v>
+        <v>-0.2147085063000091</v>
       </c>
     </row>
     <row r="137">
@@ -8877,10 +8877,10 @@
         <v>5</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.1375576454538127</v>
+        <v>-0.1375565800149658</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.1223689476273825</v>
+        <v>-0.1226152304510144</v>
       </c>
     </row>
     <row r="138">
@@ -8937,10 +8937,10 @@
         <v>9</v>
       </c>
       <c r="I138" t="n">
-        <v>0.06839022351218339</v>
+        <v>0.06836096631586945</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.02529220559346754</v>
+        <v>-0.02544036145363871</v>
       </c>
     </row>
     <row r="139">
@@ -9019,10 +9019,10 @@
         <v>8</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2158422599294293</v>
+        <v>0.2156777205236167</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.00999271213224512</v>
+        <v>-0.007917410250508294</v>
       </c>
     </row>
     <row r="140">
@@ -9073,10 +9073,10 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.1608742544430913</v>
+        <v>-0.1608802542706868</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2724956708651799</v>
+        <v>0.2725406672131193</v>
       </c>
     </row>
     <row r="141">
@@ -9123,10 +9123,10 @@
         <v>3</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1270963288855137</v>
+        <v>0.1271541159361739</v>
       </c>
       <c r="J141" t="n">
-        <v>-0.0284888605581655</v>
+        <v>-0.02818772339978838</v>
       </c>
     </row>
     <row r="142">
@@ -9175,10 +9175,10 @@
         <v>9</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.06018228582816945</v>
+        <v>-0.06021113072938265</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06465312156590744</v>
+        <v>0.06472175344893984</v>
       </c>
     </row>
     <row r="143">
@@ -9229,10 +9229,10 @@
         <v>3</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1032122918516907</v>
+        <v>0.1032767773661027</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.005436851590401932</v>
+        <v>-0.005564975701885006</v>
       </c>
     </row>
     <row r="144">
@@ -9303,10 +9303,10 @@
         <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0.003771282906314237</v>
+        <v>0.003764232810970962</v>
       </c>
       <c r="J144" t="n">
-        <v>0.09797821091019522</v>
+        <v>0.09776113420468313</v>
       </c>
     </row>
     <row r="145">
@@ -9363,10 +9363,10 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.08155109430909153</v>
+        <v>0.08155655025329521</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.07937749336278623</v>
+        <v>-0.07946322553067688</v>
       </c>
     </row>
     <row r="146">
@@ -9415,10 +9415,10 @@
         <v>8</v>
       </c>
       <c r="I146" t="n">
-        <v>0.3184660319428697</v>
+        <v>0.318492448230735</v>
       </c>
       <c r="J146" t="n">
-        <v>-0.04888078968781176</v>
+        <v>-0.04900645558188671</v>
       </c>
     </row>
     <row r="147">
@@ -9477,10 +9477,10 @@
         <v>9</v>
       </c>
       <c r="I147" t="n">
-        <v>0.01521194494071596</v>
+        <v>0.01519379932016579</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.004475159347781594</v>
+        <v>-0.004232815218947176</v>
       </c>
     </row>
     <row r="148">
@@ -9529,10 +9529,10 @@
         <v>6</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.08368495565462918</v>
+        <v>-0.08368322361011026</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1429984558188985</v>
+        <v>0.143942877362833</v>
       </c>
     </row>
     <row r="149">
@@ -9583,10 +9583,10 @@
         <v>8</v>
       </c>
       <c r="I149" t="n">
-        <v>0.07778580498868483</v>
+        <v>0.0777893822799207</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.007685170999488328</v>
+        <v>-0.008088360668318795</v>
       </c>
     </row>
     <row r="150">
@@ -9651,10 +9651,10 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.1689330033019847</v>
+        <v>-0.1689196940059642</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1753788613891336</v>
+        <v>0.1752389503639021</v>
       </c>
     </row>
     <row r="151">
@@ -9717,10 +9717,10 @@
         <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.1267618838929279</v>
+        <v>-0.1268357289160714</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.1930438000011034</v>
+        <v>-0.1936762867971325</v>
       </c>
     </row>
     <row r="152">
@@ -9767,10 +9767,10 @@
         <v>9</v>
       </c>
       <c r="I152" t="n">
-        <v>0.1343048871192441</v>
+        <v>0.1343351390994739</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.01612290290663399</v>
+        <v>-0.0165426002834703</v>
       </c>
     </row>
     <row r="153">
@@ -9825,10 +9825,10 @@
         <v>8</v>
       </c>
       <c r="I153" t="n">
-        <v>0.1187034421435428</v>
+        <v>0.1186486667922017</v>
       </c>
       <c r="J153" t="n">
-        <v>-0.01056680916869669</v>
+        <v>-0.00953353775401999</v>
       </c>
     </row>
     <row r="154">
@@ -9895,10 +9895,10 @@
         <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.06773789006864686</v>
+        <v>-0.06784031954285667</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1892611803223936</v>
+        <v>0.1892223025474722</v>
       </c>
     </row>
     <row r="155">
@@ -9979,10 +9979,10 @@
         <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.0943495287054979</v>
+        <v>-0.09425726774892332</v>
       </c>
       <c r="J155" t="n">
-        <v>-0.02093688272226431</v>
+        <v>-0.02118294828465726</v>
       </c>
     </row>
     <row r="156">
@@ -10035,10 +10035,10 @@
         <v>7</v>
       </c>
       <c r="I156" t="n">
-        <v>0.2670367320842972</v>
+        <v>0.2670771497028803</v>
       </c>
       <c r="J156" t="n">
-        <v>0.002724235335841586</v>
+        <v>0.002513161430178349</v>
       </c>
     </row>
     <row r="157">
@@ -10111,10 +10111,10 @@
         <v>6</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.1686156614603073</v>
+        <v>-0.1687214552637631</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2530928829148476</v>
+        <v>0.2532112121871358</v>
       </c>
     </row>
     <row r="158">
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.06599796039186084</v>
+        <v>-0.06606686361906847</v>
       </c>
       <c r="J158" t="n">
-        <v>-0.1438983621016174</v>
+        <v>-0.1442283764790692</v>
       </c>
     </row>
     <row r="159">
@@ -10221,10 +10221,10 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.1998365490660328</v>
+        <v>-0.1998860711190462</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3318514838730187</v>
+        <v>0.3321053445636772</v>
       </c>
     </row>
     <row r="160">
@@ -10283,10 +10283,10 @@
         <v>8</v>
       </c>
       <c r="I160" t="n">
-        <v>0.2035361910529616</v>
+        <v>0.2036098213358624</v>
       </c>
       <c r="J160" t="n">
-        <v>-0.01976760528066203</v>
+        <v>-0.01933349741313329</v>
       </c>
     </row>
     <row r="161">
@@ -10341,10 +10341,10 @@
         <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.0598367171977017</v>
+        <v>-0.05981665852409671</v>
       </c>
       <c r="J161" t="n">
-        <v>-0.02005395915895506</v>
+        <v>-0.02010044293573237</v>
       </c>
     </row>
     <row r="162">
@@ -10399,10 +10399,10 @@
         <v>9</v>
       </c>
       <c r="I162" t="n">
-        <v>0.1351223281202588</v>
+        <v>0.1351373766411974</v>
       </c>
       <c r="J162" t="n">
-        <v>-0.01285990386143798</v>
+        <v>-0.01376268924366606</v>
       </c>
     </row>
     <row r="163">
@@ -10463,10 +10463,10 @@
         <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.2056447984304313</v>
+        <v>-0.2054701173485695</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.2553183625749345</v>
+        <v>-0.2544421513491734</v>
       </c>
     </row>
     <row r="164">
@@ -10523,10 +10523,10 @@
         <v>3</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.04046984911929931</v>
+        <v>-0.04045479887234908</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04675504994351917</v>
+        <v>0.04675720757780518</v>
       </c>
     </row>
     <row r="165">
@@ -10577,10 +10577,10 @@
         <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0.0791037015258159</v>
+        <v>0.07909317163834045</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02312353865468401</v>
+        <v>0.02276017757124383</v>
       </c>
     </row>
     <row r="166">
@@ -10639,10 +10639,10 @@
         <v>6</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.05322974386288913</v>
+        <v>-0.05338918559133687</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1285897972191381</v>
+        <v>0.1286346488097681</v>
       </c>
     </row>
     <row r="167">
@@ -10695,10 +10695,10 @@
         <v>9</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.001945665204166672</v>
+        <v>-0.001941623246362495</v>
       </c>
       <c r="J167" t="n">
-        <v>-0.006878635210024453</v>
+        <v>-0.006617594040868183</v>
       </c>
     </row>
     <row r="168">
@@ -10763,10 +10763,10 @@
         <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.2412103521570254</v>
+        <v>-0.2411206473369767</v>
       </c>
       <c r="J168" t="n">
-        <v>-0.2776906368072893</v>
+        <v>-0.2774915546128173</v>
       </c>
     </row>
     <row r="169">
@@ -10819,10 +10819,10 @@
         <v>9</v>
       </c>
       <c r="I169" t="n">
-        <v>0.02793618843223026</v>
+        <v>0.0280164883117287</v>
       </c>
       <c r="J169" t="n">
-        <v>0.006537059517710666</v>
+        <v>0.005627257362031861</v>
       </c>
     </row>
     <row r="170">
@@ -10901,10 +10901,10 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.1712429326285531</v>
+        <v>-0.1712662359034338</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2261408209866793</v>
+        <v>0.2260228201147483</v>
       </c>
     </row>
     <row r="171">
@@ -10957,10 +10957,10 @@
         <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.1123974868554251</v>
+        <v>-0.1123574502485212</v>
       </c>
       <c r="J171" t="n">
-        <v>-0.0471785844044928</v>
+        <v>-0.04685751327320332</v>
       </c>
     </row>
     <row r="172">
@@ -11019,10 +11019,10 @@
         <v>9</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.08744802227793316</v>
+        <v>-0.08739524709902163</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0827245348710912</v>
+        <v>0.08187213597674346</v>
       </c>
     </row>
     <row r="173">
@@ -11077,10 +11077,10 @@
         <v>5</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.1244705354443156</v>
+        <v>-0.1243591621875397</v>
       </c>
       <c r="J173" t="n">
-        <v>-0.09679387479625311</v>
+        <v>-0.09655417640372801</v>
       </c>
     </row>
     <row r="174">
@@ -11139,10 +11139,10 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.1972275668265272</v>
+        <v>-0.1973769836434217</v>
       </c>
       <c r="J174" t="n">
-        <v>0.3305204566246651</v>
+        <v>0.330586571406196</v>
       </c>
     </row>
     <row r="175">
@@ -11211,10 +11211,10 @@
         <v>9</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.06800000205486492</v>
+        <v>-0.06796090871594497</v>
       </c>
       <c r="J175" t="n">
-        <v>0.07666035867589126</v>
+        <v>0.07603918422552983</v>
       </c>
     </row>
     <row r="176">
@@ -11275,10 +11275,10 @@
         <v>3</v>
       </c>
       <c r="I176" t="n">
-        <v>0.03695136674912511</v>
+        <v>0.03698604250406348</v>
       </c>
       <c r="J176" t="n">
-        <v>-0.03003095155062605</v>
+        <v>-0.030689949010221</v>
       </c>
     </row>
     <row r="177">
@@ -11345,10 +11345,10 @@
         <v>8</v>
       </c>
       <c r="I177" t="n">
-        <v>0.1446164399324235</v>
+        <v>0.1445766967078315</v>
       </c>
       <c r="J177" t="n">
-        <v>0.08719484683671119</v>
+        <v>0.08609416352540863</v>
       </c>
     </row>
     <row r="178">
@@ -11401,10 +11401,10 @@
         <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>0.06542730664340898</v>
+        <v>0.06543536649399748</v>
       </c>
       <c r="J178" t="n">
-        <v>0.000813483655573766</v>
+        <v>0.000609738644316621</v>
       </c>
     </row>
     <row r="179">
@@ -11467,10 +11467,10 @@
         <v>6</v>
       </c>
       <c r="I179" t="n">
-        <v>-0.09319858635448004</v>
+        <v>-0.09324790328882232</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1185327820265659</v>
+        <v>0.1180601439499393</v>
       </c>
     </row>
     <row r="180">
@@ -11529,10 +11529,10 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.1902653921763823</v>
+        <v>-0.1903245270453044</v>
       </c>
       <c r="J180" t="n">
-        <v>-0.2384381807018658</v>
+        <v>-0.2383035813054812</v>
       </c>
     </row>
     <row r="181">
@@ -11585,10 +11585,10 @@
         <v>9</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.07031213326565025</v>
+        <v>-0.07024840644792574</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1053595907993255</v>
+        <v>0.1064954382026883</v>
       </c>
     </row>
     <row r="182">
@@ -11641,10 +11641,10 @@
         <v>9</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.09444081169255317</v>
+        <v>-0.09441210603799209</v>
       </c>
       <c r="J182" t="n">
-        <v>0.07282879251623779</v>
+        <v>0.07222472152207104</v>
       </c>
     </row>
     <row r="183">
@@ -11701,10 +11701,10 @@
         <v>5</v>
       </c>
       <c r="I183" t="n">
-        <v>-0.1617887641887372</v>
+        <v>-0.1617745566258348</v>
       </c>
       <c r="J183" t="n">
-        <v>-0.1394253652115267</v>
+        <v>-0.1396437007594793</v>
       </c>
     </row>
     <row r="184">
@@ -11757,10 +11757,10 @@
         <v>7</v>
       </c>
       <c r="I184" t="n">
-        <v>0.1156336000969036</v>
+        <v>0.1156080622265437</v>
       </c>
       <c r="J184" t="n">
-        <v>-0.009444277160209982</v>
+        <v>-0.00922116563538357</v>
       </c>
     </row>
     <row r="185">
@@ -11809,10 +11809,10 @@
         <v>8</v>
       </c>
       <c r="I185" t="n">
-        <v>0.02419519697474167</v>
+        <v>0.02414761510437617</v>
       </c>
       <c r="J185" t="n">
-        <v>-0.01752571330301286</v>
+        <v>-0.01678508717151857</v>
       </c>
     </row>
     <row r="186">
@@ -11881,10 +11881,10 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-0.03698377611470912</v>
+        <v>-0.03697172773426978</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0217461019441594</v>
+        <v>0.0220426604039553</v>
       </c>
     </row>
     <row r="187">
@@ -11939,10 +11939,10 @@
         <v>6</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.08765327970948483</v>
+        <v>-0.0876602142395923</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1321418724404278</v>
+        <v>0.1320498554098324</v>
       </c>
     </row>
     <row r="188">
@@ -11995,10 +11995,10 @@
         <v>3</v>
       </c>
       <c r="I188" t="n">
-        <v>0.0302543878174435</v>
+        <v>0.03026631976972051</v>
       </c>
       <c r="J188" t="n">
-        <v>-0.001039433642335177</v>
+        <v>-0.0004791809886701572</v>
       </c>
     </row>
     <row r="189">
@@ -12063,10 +12063,10 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>-0.1226276468402919</v>
+        <v>-0.1225881211046352</v>
       </c>
       <c r="J189" t="n">
-        <v>0.08834531378252311</v>
+        <v>0.08858495405215404</v>
       </c>
     </row>
     <row r="190">
@@ -12129,10 +12129,10 @@
         <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>-0.2082319743974055</v>
+        <v>-0.208114170199473</v>
       </c>
       <c r="J190" t="n">
-        <v>-0.2713529091057493</v>
+        <v>-0.2707734848903672</v>
       </c>
     </row>
     <row r="191">
@@ -12221,10 +12221,10 @@
         <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>-0.1788791184902584</v>
+        <v>-0.1789202480692161</v>
       </c>
       <c r="J191" t="n">
-        <v>-0.2046688865943048</v>
+        <v>-0.2039155028633912</v>
       </c>
     </row>
     <row r="192">
@@ -12281,10 +12281,10 @@
         <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>-0.1563492374174955</v>
+        <v>-0.1563635158227256</v>
       </c>
       <c r="J192" t="n">
-        <v>-0.161404067995073</v>
+        <v>-0.161464115184295</v>
       </c>
     </row>
     <row r="193">
@@ -12349,10 +12349,10 @@
         <v>5</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.1265174755841592</v>
+        <v>-0.1265263210739372</v>
       </c>
       <c r="J193" t="n">
-        <v>-0.1561413120210491</v>
+        <v>-0.1557417378533097</v>
       </c>
     </row>
     <row r="194">
@@ -12405,10 +12405,10 @@
         <v>6</v>
       </c>
       <c r="I194" t="n">
-        <v>-0.08203538948895017</v>
+        <v>-0.08214783483886687</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1420321535254571</v>
+        <v>0.1422834106692983</v>
       </c>
     </row>
     <row r="195">
@@ -12455,10 +12455,10 @@
         <v>8</v>
       </c>
       <c r="I195" t="n">
-        <v>0.1916125122843794</v>
+        <v>0.1916843392227769</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02044038621700309</v>
+        <v>0.02002017120856464</v>
       </c>
     </row>
     <row r="196">
@@ -12511,10 +12511,10 @@
         <v>3</v>
       </c>
       <c r="I196" t="n">
-        <v>0.3076673451322518</v>
+        <v>0.307729205913089</v>
       </c>
       <c r="J196" t="n">
-        <v>-0.03275367599260885</v>
+        <v>-0.03334343662971691</v>
       </c>
     </row>
     <row r="197">
@@ -12565,10 +12565,10 @@
         <v>9</v>
       </c>
       <c r="I197" t="n">
-        <v>-0.04789365593332588</v>
+        <v>-0.04785752216357252</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03635952021665192</v>
+        <v>0.0381116854816234</v>
       </c>
     </row>
     <row r="198">
@@ -12625,10 +12625,10 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>-0.1716930021143619</v>
+        <v>-0.1716504282523076</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3323099927904984</v>
+        <v>0.3321246068374253</v>
       </c>
     </row>
     <row r="199">
@@ -12687,10 +12687,10 @@
         <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>-0.1167218047626269</v>
+        <v>-0.1166867851857125</v>
       </c>
       <c r="J199" t="n">
-        <v>-0.1212887127221458</v>
+        <v>-0.1211555825085092</v>
       </c>
     </row>
     <row r="200">
@@ -12775,10 +12775,10 @@
         <v>6</v>
       </c>
       <c r="I200" t="n">
-        <v>-0.08522828836957203</v>
+        <v>-0.08527256231319814</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1045113635506134</v>
+        <v>0.1043283269206519</v>
       </c>
     </row>
     <row r="201">
@@ -12835,10 +12835,10 @@
         <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>0.1917217236830393</v>
+        <v>0.1917179576714593</v>
       </c>
       <c r="J201" t="n">
-        <v>-0.01869468285108945</v>
+        <v>-0.02004768615166957</v>
       </c>
     </row>
     <row r="202">
@@ -12909,10 +12909,10 @@
         <v>9</v>
       </c>
       <c r="I202" t="n">
-        <v>-0.06291197185762368</v>
+        <v>-0.06298124669545908</v>
       </c>
       <c r="J202" t="n">
-        <v>0.07409398199354189</v>
+        <v>0.07422980083615453</v>
       </c>
     </row>
     <row r="203">
@@ -12963,10 +12963,10 @@
         <v>6</v>
       </c>
       <c r="I203" t="n">
-        <v>-0.08257983643426918</v>
+        <v>-0.08252344019470627</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1399463499013346</v>
+        <v>0.1397940918498023</v>
       </c>
     </row>
     <row r="204">
@@ -13023,10 +13023,10 @@
         <v>3</v>
       </c>
       <c r="I204" t="n">
-        <v>0.1006070472415053</v>
+        <v>0.1005997548525133</v>
       </c>
       <c r="J204" t="n">
-        <v>-0.007436122735143991</v>
+        <v>-0.007175744618866099</v>
       </c>
     </row>
     <row r="205">
@@ -13085,10 +13085,10 @@
         <v>3</v>
       </c>
       <c r="I205" t="n">
-        <v>0.06310617556565806</v>
+        <v>0.06314835632166106</v>
       </c>
       <c r="J205" t="n">
-        <v>-0.03329550329348383</v>
+        <v>-0.03309287035635344</v>
       </c>
     </row>
     <row r="206">
@@ -13139,10 +13139,10 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0.01881825690780472</v>
+        <v>0.01884991034777064</v>
       </c>
       <c r="J206" t="n">
-        <v>-0.02154558866641473</v>
+        <v>-0.02197674840146235</v>
       </c>
     </row>
     <row r="207">
@@ -13203,10 +13203,10 @@
         <v>9</v>
       </c>
       <c r="I207" t="n">
-        <v>-0.1293988662095146</v>
+        <v>-0.1295289104493656</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1926129773999314</v>
+        <v>0.192319588663743</v>
       </c>
     </row>
     <row r="208">
@@ -13265,10 +13265,10 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>-0.1236492811004138</v>
+        <v>-0.1236523672748367</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2283323226413988</v>
+        <v>0.2289086176677642</v>
       </c>
     </row>
     <row r="209">
@@ -13347,10 +13347,10 @@
         <v>9</v>
       </c>
       <c r="I209" t="n">
-        <v>-0.003752121425007131</v>
+        <v>-0.003811779612022058</v>
       </c>
       <c r="J209" t="n">
-        <v>0.007573490953556082</v>
+        <v>0.008343053420248105</v>
       </c>
     </row>
     <row r="210">
@@ -13463,10 +13463,10 @@
         <v>8</v>
       </c>
       <c r="I210" t="n">
-        <v>0.3301365036360592</v>
+        <v>0.3300639024464783</v>
       </c>
       <c r="J210" t="n">
-        <v>-0.02026946575495002</v>
+        <v>-0.01873936965664216</v>
       </c>
     </row>
     <row r="211">
@@ -13525,10 +13525,10 @@
         <v>3</v>
       </c>
       <c r="I211" t="n">
-        <v>0.03340227263561844</v>
+        <v>0.03339485090629205</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01530975580258329</v>
+        <v>0.01588453295248984</v>
       </c>
     </row>
     <row r="212">
@@ -13591,10 +13591,10 @@
         <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>0.1338217167359573</v>
+        <v>0.133768487023453</v>
       </c>
       <c r="J212" t="n">
-        <v>-0.02778100812428367</v>
+        <v>-0.02873620873439682</v>
       </c>
     </row>
     <row r="213">
@@ -13641,10 +13641,10 @@
         <v>8</v>
       </c>
       <c r="I213" t="n">
-        <v>0.2248902005808136</v>
+        <v>0.2249230624859438</v>
       </c>
       <c r="J213" t="n">
-        <v>-0.03065226031286806</v>
+        <v>-0.03085320971247995</v>
       </c>
     </row>
     <row r="214">
@@ -13697,10 +13697,10 @@
         <v>9</v>
       </c>
       <c r="I214" t="n">
-        <v>-0.05554758124139657</v>
+        <v>-0.05549745753610967</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04076845887930309</v>
+        <v>0.04246552155005583</v>
       </c>
     </row>
     <row r="215">
@@ -13749,10 +13749,10 @@
         <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>0.01125901686207938</v>
+        <v>0.01127476259136025</v>
       </c>
       <c r="J215" t="n">
-        <v>-0.008323978693272331</v>
+        <v>-0.008399647096438338</v>
       </c>
     </row>
     <row r="216">
@@ -13809,10 +13809,10 @@
         <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>0.0006579867619325051</v>
+        <v>0.0006645322787097179</v>
       </c>
       <c r="J216" t="n">
-        <v>0.08790756696693557</v>
+        <v>0.08801157875249811</v>
       </c>
     </row>
     <row r="217">
@@ -13861,10 +13861,10 @@
         <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>-0.0426697947843696</v>
+        <v>-0.04265905954768218</v>
       </c>
       <c r="J217" t="n">
-        <v>-0.030741937689404</v>
+        <v>-0.0307539622877794</v>
       </c>
     </row>
     <row r="218">
@@ -13943,10 +13943,10 @@
         <v>4</v>
       </c>
       <c r="I218" t="n">
-        <v>-0.2125019334735011</v>
+        <v>-0.2125724373697097</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1628952392724925</v>
+        <v>0.1626834340838682</v>
       </c>
     </row>
     <row r="219">
@@ -13995,10 +13995,10 @@
         <v>7</v>
       </c>
       <c r="I219" t="n">
-        <v>0.1769589751967074</v>
+        <v>0.176997957109168</v>
       </c>
       <c r="J219" t="n">
-        <v>0.002542825276948552</v>
+        <v>0.001912006891692998</v>
       </c>
     </row>
     <row r="220">
@@ -14063,10 +14063,10 @@
         <v>4</v>
       </c>
       <c r="I220" t="n">
-        <v>-0.1876842648603855</v>
+        <v>-0.1876118328836373</v>
       </c>
       <c r="J220" t="n">
-        <v>0.08137374659045758</v>
+        <v>0.08159523993232758</v>
       </c>
     </row>
     <row r="221">
@@ -14169,10 +14169,10 @@
         <v>3</v>
       </c>
       <c r="I221" t="n">
-        <v>0.05759867514274222</v>
+        <v>0.0575470350712636</v>
       </c>
       <c r="J221" t="n">
-        <v>-0.02492021243193556</v>
+        <v>-0.02367914039560564</v>
       </c>
     </row>
     <row r="222">
@@ -14239,10 +14239,10 @@
         <v>1</v>
       </c>
       <c r="I222" t="n">
-        <v>0.05500176982632161</v>
+        <v>0.05500761790044396</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.04721593083099784</v>
+        <v>-0.04770290104065888</v>
       </c>
     </row>
     <row r="223">
@@ -14295,10 +14295,10 @@
         <v>7</v>
       </c>
       <c r="I223" t="n">
-        <v>0.2698567245830714</v>
+        <v>0.2699071725221202</v>
       </c>
       <c r="J223" t="n">
-        <v>-0.02537421875714567</v>
+        <v>-0.0256102263210084</v>
       </c>
     </row>
     <row r="224">
@@ -14357,10 +14357,10 @@
         <v>9</v>
       </c>
       <c r="I224" t="n">
-        <v>0.1197875604899433</v>
+        <v>0.1197739177091899</v>
       </c>
       <c r="J224" t="n">
-        <v>-0.01689774549724901</v>
+        <v>-0.01762291734006574</v>
       </c>
     </row>
     <row r="225">
@@ -14419,10 +14419,10 @@
         <v>1</v>
       </c>
       <c r="I225" t="n">
-        <v>0.04933886586911477</v>
+        <v>0.04932466005352967</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02259584375942112</v>
+        <v>0.02264763040282592</v>
       </c>
     </row>
     <row r="226">
@@ -14473,10 +14473,10 @@
         <v>5</v>
       </c>
       <c r="I226" t="n">
-        <v>-0.164844204806833</v>
+        <v>-0.1648385684059277</v>
       </c>
       <c r="J226" t="n">
-        <v>-0.1611199713588574</v>
+        <v>-0.1611785361104402</v>
       </c>
     </row>
     <row r="227">
@@ -14529,10 +14529,10 @@
         <v>8</v>
       </c>
       <c r="I227" t="n">
-        <v>0.145097403498933</v>
+        <v>0.1451594242054619</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01928571804495081</v>
+        <v>0.02021102928765971</v>
       </c>
     </row>
     <row r="228">
@@ -14579,10 +14579,10 @@
         <v>3</v>
       </c>
       <c r="I228" t="n">
-        <v>-0.05793557520399955</v>
+        <v>-0.05796021830885031</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01774041155129106</v>
+        <v>0.01742636474439641</v>
       </c>
     </row>
     <row r="229">
@@ -14641,10 +14641,10 @@
         <v>9</v>
       </c>
       <c r="I229" t="n">
-        <v>0.001197643900762576</v>
+        <v>0.00118648345231535</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0003743201117032194</v>
+        <v>0.0006626765953231225</v>
       </c>
     </row>
     <row r="230">
@@ -14691,10 +14691,10 @@
         <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>0.007037604367296915</v>
+        <v>0.00700371675992614</v>
       </c>
       <c r="J230" t="n">
-        <v>-0.0328956757207827</v>
+        <v>-0.03278302557526517</v>
       </c>
     </row>
     <row r="231">
@@ -14747,10 +14747,10 @@
         <v>3</v>
       </c>
       <c r="I231" t="n">
-        <v>0.1462186880507724</v>
+        <v>0.1462477261728299</v>
       </c>
       <c r="J231" t="n">
-        <v>-0.04072076104652284</v>
+        <v>-0.04078168364076835</v>
       </c>
     </row>
     <row r="232">
@@ -14801,10 +14801,10 @@
         <v>9</v>
       </c>
       <c r="I232" t="n">
-        <v>-0.03218337800891679</v>
+        <v>-0.03210232579909255</v>
       </c>
       <c r="J232" t="n">
-        <v>0.07060406298510573</v>
+        <v>0.07254543173162874</v>
       </c>
     </row>
     <row r="233">
@@ -14855,10 +14855,10 @@
         <v>9</v>
       </c>
       <c r="I233" t="n">
-        <v>-0.0006725236783226643</v>
+        <v>-0.0006696234142026857</v>
       </c>
       <c r="J233" t="n">
-        <v>-0.005716074341875601</v>
+        <v>-0.005456793648785974</v>
       </c>
     </row>
     <row r="234">
@@ -14911,10 +14911,10 @@
         <v>8</v>
       </c>
       <c r="I234" t="n">
-        <v>0.3055150038793988</v>
+        <v>0.3055341763041953</v>
       </c>
       <c r="J234" t="n">
-        <v>-0.02884828936539534</v>
+        <v>-0.0295922179807574</v>
       </c>
     </row>
     <row r="235">
@@ -14963,10 +14963,10 @@
         <v>7</v>
       </c>
       <c r="I235" t="n">
-        <v>-0.1032320558120466</v>
+        <v>-0.103195457103429</v>
       </c>
       <c r="J235" t="n">
-        <v>-0.1024104336112077</v>
+        <v>-0.1021065118409351</v>
       </c>
     </row>
     <row r="236">
@@ -15021,10 +15021,10 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>-0.05075630708561405</v>
+        <v>-0.05087432240232371</v>
       </c>
       <c r="J236" t="n">
-        <v>-0.1087952476548606</v>
+        <v>-0.1082946402896274</v>
       </c>
     </row>
     <row r="237">
@@ -15105,10 +15105,10 @@
         <v>6</v>
       </c>
       <c r="I237" t="n">
-        <v>0.01707349498593002</v>
+        <v>0.01712280477105887</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1089627523329498</v>
+        <v>0.1085439865142563</v>
       </c>
     </row>
     <row r="238">
@@ -15157,10 +15157,10 @@
         <v>9</v>
       </c>
       <c r="I238" t="n">
-        <v>-0.1012672719174502</v>
+        <v>-0.1012151149640637</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01601874863601099</v>
+        <v>0.01608290386558522</v>
       </c>
     </row>
     <row r="239">
@@ -15211,10 +15211,10 @@
         <v>6</v>
       </c>
       <c r="I239" t="n">
-        <v>-0.121923748250066</v>
+        <v>-0.1219180783182007</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1303209711285296</v>
+        <v>0.130383031238332</v>
       </c>
     </row>
     <row r="240">
@@ -15275,10 +15275,10 @@
         <v>9</v>
       </c>
       <c r="I240" t="n">
-        <v>-0.00700663747472715</v>
+        <v>-0.007012824502610628</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03712060071943442</v>
+        <v>0.0371242598460993</v>
       </c>
     </row>
     <row r="241">
@@ -15327,10 +15327,10 @@
         <v>9</v>
       </c>
       <c r="I241" t="n">
-        <v>-0.05607935544423417</v>
+        <v>-0.05609068029674055</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02144151905233265</v>
+        <v>0.02142811549074511</v>
       </c>
     </row>
     <row r="242">
@@ -15397,10 +15397,10 @@
         <v>1</v>
       </c>
       <c r="I242" t="n">
-        <v>0.01308282895858062</v>
+        <v>0.01306859208846799</v>
       </c>
       <c r="J242" t="n">
-        <v>-0.009157520131703524</v>
+        <v>-0.009391343642359299</v>
       </c>
     </row>
     <row r="243">
@@ -15447,10 +15447,10 @@
         <v>3</v>
       </c>
       <c r="I243" t="n">
-        <v>0.009029698795418786</v>
+        <v>0.009082915073029068</v>
       </c>
       <c r="J243" t="n">
-        <v>0.003039746120515187</v>
+        <v>0.00328451988898563</v>
       </c>
     </row>
     <row r="244">
@@ -15511,10 +15511,10 @@
         <v>9</v>
       </c>
       <c r="I244" t="n">
-        <v>0.06048778114139409</v>
+        <v>0.0605280835487185</v>
       </c>
       <c r="J244" t="n">
-        <v>-0.03335192938955205</v>
+        <v>-0.03350750725499006</v>
       </c>
     </row>
     <row r="245">
@@ -15575,10 +15575,10 @@
         <v>8</v>
       </c>
       <c r="I245" t="n">
-        <v>0.2474160162792584</v>
+        <v>0.2474058528149626</v>
       </c>
       <c r="J245" t="n">
-        <v>-0.01444081585309792</v>
+        <v>-0.01471480680679176</v>
       </c>
     </row>
     <row r="246">
@@ -15629,10 +15629,10 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0.01059879043941638</v>
+        <v>0.01057302245102018</v>
       </c>
       <c r="J246" t="n">
-        <v>-0.1006085257270765</v>
+        <v>-0.1011721255584754</v>
       </c>
     </row>
     <row r="247">
@@ -15695,10 +15695,10 @@
         <v>1</v>
       </c>
       <c r="I247" t="n">
-        <v>-0.0975899238327668</v>
+        <v>-0.09767453718650107</v>
       </c>
       <c r="J247" t="n">
-        <v>-0.114737500437869</v>
+        <v>-0.1151685282902111</v>
       </c>
     </row>
     <row r="248">
@@ -15759,10 +15759,10 @@
         <v>1</v>
       </c>
       <c r="I248" t="n">
-        <v>0.01167172594515643</v>
+        <v>0.01163604824324886</v>
       </c>
       <c r="J248" t="n">
-        <v>-0.004553559948879526</v>
+        <v>-0.004802739732047715</v>
       </c>
     </row>
     <row r="249">
@@ -15817,10 +15817,10 @@
         <v>6</v>
       </c>
       <c r="I249" t="n">
-        <v>-0.1313254628220748</v>
+        <v>-0.1313013066009734</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1337553034282058</v>
+        <v>0.1338987049718063</v>
       </c>
     </row>
     <row r="250">
@@ -15869,10 +15869,10 @@
         <v>7</v>
       </c>
       <c r="I250" t="n">
-        <v>0.0773259754781955</v>
+        <v>0.0773920741528039</v>
       </c>
       <c r="J250" t="n">
-        <v>0.004851748144326984</v>
+        <v>0.003972755851517809</v>
       </c>
     </row>
     <row r="251">
@@ -15919,10 +15919,10 @@
         <v>3</v>
       </c>
       <c r="I251" t="n">
-        <v>0.1200403253202725</v>
+        <v>0.1201005955578825</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0001152699209285648</v>
+        <v>0.0001286569371263811</v>
       </c>
     </row>
     <row r="252">
@@ -15977,10 +15977,10 @@
         <v>6</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.09889528642373396</v>
+        <v>-0.09885962378541283</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1873211351664535</v>
+        <v>0.1868777835568215</v>
       </c>
     </row>
     <row r="253">
@@ -16035,10 +16035,10 @@
         <v>8</v>
       </c>
       <c r="I253" t="n">
-        <v>0.1797399441634994</v>
+        <v>0.1795548459386456</v>
       </c>
       <c r="J253" t="n">
-        <v>-0.06684073261567189</v>
+        <v>-0.06486014595344805</v>
       </c>
     </row>
     <row r="254">
@@ -16085,10 +16085,10 @@
         <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>-0.1754225420474855</v>
+        <v>-0.1754649761775638</v>
       </c>
       <c r="J254" t="n">
-        <v>-0.1886264844896776</v>
+        <v>-0.1888081096876462</v>
       </c>
     </row>
     <row r="255">
@@ -16137,10 +16137,10 @@
         <v>9</v>
       </c>
       <c r="I255" t="n">
-        <v>0.07667575266204456</v>
+        <v>0.07667006153796864</v>
       </c>
       <c r="J255" t="n">
-        <v>-0.01055492128807098</v>
+        <v>-0.01029015961990377</v>
       </c>
     </row>
     <row r="256">
@@ -16193,10 +16193,10 @@
         <v>8</v>
       </c>
       <c r="I256" t="n">
-        <v>0.1623564451800662</v>
+        <v>0.1624213655464198</v>
       </c>
       <c r="J256" t="n">
-        <v>-0.01627243865208821</v>
+        <v>-0.01795810388342852</v>
       </c>
     </row>
     <row r="257">
@@ -16259,10 +16259,10 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>-0.05612036369528083</v>
+        <v>-0.05625656078066984</v>
       </c>
       <c r="J257" t="n">
-        <v>-0.1239346834094266</v>
+        <v>-0.1239315767108081</v>
       </c>
     </row>
     <row r="258">
@@ -16337,10 +16337,10 @@
         <v>4</v>
       </c>
       <c r="I258" t="n">
-        <v>-0.1135409440445654</v>
+        <v>-0.1134978038575642</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1641236366577264</v>
+        <v>0.1639126252658058</v>
       </c>
     </row>
     <row r="259">
@@ -16389,10 +16389,10 @@
         <v>9</v>
       </c>
       <c r="I259" t="n">
-        <v>0.05282631673858448</v>
+        <v>0.05284580165116057</v>
       </c>
       <c r="J259" t="n">
-        <v>-0.003200614352842831</v>
+        <v>-0.003478581556275816</v>
       </c>
     </row>
     <row r="260">
@@ -16483,10 +16483,10 @@
         <v>8</v>
       </c>
       <c r="I260" t="n">
-        <v>0.1555775648408021</v>
+        <v>0.1554504230410985</v>
       </c>
       <c r="J260" t="n">
-        <v>0.002293572499624039</v>
+        <v>0.003993789961211742</v>
       </c>
     </row>
     <row r="261">
@@ -16545,10 +16545,10 @@
         <v>7</v>
       </c>
       <c r="I261" t="n">
-        <v>0.213569574592536</v>
+        <v>0.2136005248779484</v>
       </c>
       <c r="J261" t="n">
-        <v>-0.01601134125341222</v>
+        <v>-0.0167187984954811</v>
       </c>
     </row>
     <row r="262">
@@ -16595,10 +16595,10 @@
         <v>7</v>
       </c>
       <c r="I262" t="n">
-        <v>0.1592436884676923</v>
+        <v>0.1592583551396231</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01597111959502725</v>
+        <v>0.01568650028831527</v>
       </c>
     </row>
     <row r="263">
@@ -16651,10 +16651,10 @@
         <v>5</v>
       </c>
       <c r="I263" t="n">
-        <v>-0.2006086932489441</v>
+        <v>-0.2006141946996743</v>
       </c>
       <c r="J263" t="n">
-        <v>-0.2390799089050054</v>
+        <v>-0.2391636351939225</v>
       </c>
     </row>
     <row r="264">
@@ -16703,10 +16703,10 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>-0.01066502093344753</v>
+        <v>-0.01070697623939323</v>
       </c>
       <c r="J264" t="n">
-        <v>-0.1530028291792188</v>
+        <v>-0.1531391230938932</v>
       </c>
     </row>
     <row r="265">
@@ -16763,10 +16763,10 @@
         <v>9</v>
       </c>
       <c r="I265" t="n">
-        <v>0.00605199062683518</v>
+        <v>0.005947974287471514</v>
       </c>
       <c r="J265" t="n">
-        <v>0.005920391696246904</v>
+        <v>0.007477217720990157</v>
       </c>
     </row>
     <row r="266">
@@ -16817,10 +16817,10 @@
         <v>7</v>
       </c>
       <c r="I266" t="n">
-        <v>0.1878040762054152</v>
+        <v>0.1878208111543663</v>
       </c>
       <c r="J266" t="n">
-        <v>0.002932481338024172</v>
+        <v>0.003047493356576673</v>
       </c>
     </row>
     <row r="267">
@@ -16873,10 +16873,10 @@
         <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>-0.1519543008031575</v>
+        <v>-0.151999273479585</v>
       </c>
       <c r="J267" t="n">
-        <v>-0.1555207914902429</v>
+        <v>-0.1559330640947063</v>
       </c>
     </row>
     <row r="268">
@@ -16933,10 +16933,10 @@
         <v>6</v>
       </c>
       <c r="I268" t="n">
-        <v>-0.1438736249646679</v>
+        <v>-0.1437357664552124</v>
       </c>
       <c r="J268" t="n">
-        <v>0.28602615927987</v>
+        <v>0.2856505104690698</v>
       </c>
     </row>
     <row r="269">
@@ -16989,10 +16989,10 @@
         <v>8</v>
       </c>
       <c r="I269" t="n">
-        <v>0.1154980064079522</v>
+        <v>0.1155264324525584</v>
       </c>
       <c r="J269" t="n">
-        <v>-0.007468761241905698</v>
+        <v>-0.0071303635805924</v>
       </c>
     </row>
     <row r="270">
@@ -17045,10 +17045,10 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>-0.02758057174952855</v>
+        <v>-0.02758982480014437</v>
       </c>
       <c r="J270" t="n">
-        <v>-0.04843414551440915</v>
+        <v>-0.04875642247283271</v>
       </c>
     </row>
     <row r="271">
@@ -17095,10 +17095,10 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>0.03922992904286372</v>
+        <v>0.03924076879551115</v>
       </c>
       <c r="J271" t="n">
-        <v>-0.07272477985235909</v>
+        <v>-0.07305003652878224</v>
       </c>
     </row>
     <row r="272">
@@ -17145,10 +17145,10 @@
         <v>5</v>
       </c>
       <c r="I272" t="n">
-        <v>-0.1338002687684226</v>
+        <v>-0.1338119916074683</v>
       </c>
       <c r="J272" t="n">
-        <v>-0.1893622984963205</v>
+        <v>-0.1899137185575706</v>
       </c>
     </row>
     <row r="273">
@@ -17197,10 +17197,10 @@
         <v>7</v>
       </c>
       <c r="I273" t="n">
-        <v>0.08538310442281817</v>
+        <v>0.08540548836538775</v>
       </c>
       <c r="J273" t="n">
-        <v>0.03052695746844265</v>
+        <v>0.02990107350064945</v>
       </c>
     </row>
     <row r="274">
@@ -17247,10 +17247,10 @@
         <v>5</v>
       </c>
       <c r="I274" t="n">
-        <v>-0.1489997465917762</v>
+        <v>-0.1490054796065685</v>
       </c>
       <c r="J274" t="n">
-        <v>-0.1574586630699502</v>
+        <v>-0.1577013744047707</v>
       </c>
     </row>
     <row r="275">
@@ -17309,10 +17309,10 @@
         <v>7</v>
       </c>
       <c r="I275" t="n">
-        <v>0.09813665057618159</v>
+        <v>0.09812979370784733</v>
       </c>
       <c r="J275" t="n">
-        <v>0.06416738415554112</v>
+        <v>0.06396139152011517</v>
       </c>
     </row>
     <row r="276">
@@ -17371,10 +17371,10 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>0.0596021402375173</v>
+        <v>0.05967624074582895</v>
       </c>
       <c r="J276" t="n">
-        <v>0.007893653197594188</v>
+        <v>0.008568296511658594</v>
       </c>
     </row>
     <row r="277">
@@ -17425,10 +17425,10 @@
         <v>9</v>
       </c>
       <c r="I277" t="n">
-        <v>0.04551645913858705</v>
+        <v>0.04549352558982096</v>
       </c>
       <c r="J277" t="n">
-        <v>0.005066101180531838</v>
+        <v>0.005390868663325911</v>
       </c>
     </row>
     <row r="278">
@@ -17481,10 +17481,10 @@
         <v>8</v>
       </c>
       <c r="I278" t="n">
-        <v>0.1125886391874343</v>
+        <v>0.1124204085532827</v>
       </c>
       <c r="J278" t="n">
-        <v>-0.05168705150813629</v>
+        <v>-0.0502178904488795</v>
       </c>
     </row>
     <row r="279">
@@ -17539,10 +17539,10 @@
         <v>6</v>
       </c>
       <c r="I279" t="n">
-        <v>-0.08810249896265822</v>
+        <v>-0.08813058974968592</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1430946052347711</v>
+        <v>0.1429736153295853</v>
       </c>
     </row>
     <row r="280">
@@ -17611,10 +17611,10 @@
         <v>7</v>
       </c>
       <c r="I280" t="n">
-        <v>0.2357457990010068</v>
+        <v>0.2357928684540606</v>
       </c>
       <c r="J280" t="n">
-        <v>-0.01997638798002239</v>
+        <v>-0.0204812340336799</v>
       </c>
     </row>
     <row r="281">
@@ -17665,10 +17665,10 @@
         <v>9</v>
       </c>
       <c r="I281" t="n">
-        <v>-0.07940650715602697</v>
+        <v>-0.07935936142774884</v>
       </c>
       <c r="J281" t="n">
-        <v>0.05859552821217477</v>
+        <v>0.05817137580440857</v>
       </c>
     </row>
     <row r="282">
@@ -17731,10 +17731,10 @@
         <v>9</v>
       </c>
       <c r="I282" t="n">
-        <v>0.08658950654055826</v>
+        <v>0.086585935269009</v>
       </c>
       <c r="J282" t="n">
-        <v>-0.01069827290123776</v>
+        <v>-0.01049767185228208</v>
       </c>
     </row>
     <row r="283">
@@ -17817,10 +17817,10 @@
         <v>4</v>
       </c>
       <c r="I283" t="n">
-        <v>-0.1419686244627412</v>
+        <v>-0.1419950463170661</v>
       </c>
       <c r="J283" t="n">
-        <v>0.2730879546555564</v>
+        <v>0.2734292494847024</v>
       </c>
     </row>
     <row r="284">
@@ -17899,10 +17899,10 @@
         <v>9</v>
       </c>
       <c r="I284" t="n">
-        <v>0.09433000366317293</v>
+        <v>0.09429745097487802</v>
       </c>
       <c r="J284" t="n">
-        <v>0.01226673223168256</v>
+        <v>0.01284326688070772</v>
       </c>
     </row>
     <row r="285">
@@ -17949,10 +17949,10 @@
         <v>6</v>
       </c>
       <c r="I285" t="n">
-        <v>-0.08605810596696521</v>
+        <v>-0.08594309529034846</v>
       </c>
       <c r="J285" t="n">
-        <v>0.1478372310940655</v>
+        <v>0.1474554073260353</v>
       </c>
     </row>
     <row r="286">
@@ -17999,10 +17999,10 @@
         <v>6</v>
       </c>
       <c r="I286" t="n">
-        <v>-0.05132779290095697</v>
+        <v>-0.05133070185317502</v>
       </c>
       <c r="J286" t="n">
-        <v>0.1097271714727908</v>
+        <v>0.1094224970777124</v>
       </c>
     </row>
     <row r="287">
@@ -18063,10 +18063,10 @@
         <v>8</v>
       </c>
       <c r="I287" t="n">
-        <v>0.1946427700713045</v>
+        <v>0.1945911991962219</v>
       </c>
       <c r="J287" t="n">
-        <v>0.007082527138868941</v>
+        <v>0.007938268313076664</v>
       </c>
     </row>
     <row r="288">
@@ -18117,10 +18117,10 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>-0.01402458070108081</v>
+        <v>-0.01406722334343715</v>
       </c>
       <c r="J288" t="n">
-        <v>-0.0777350875183557</v>
+        <v>-0.07759695647233376</v>
       </c>
     </row>
     <row r="289">
@@ -18207,10 +18207,10 @@
         <v>9</v>
       </c>
       <c r="I289" t="n">
-        <v>0.01735395159775008</v>
+        <v>0.0174271264434173</v>
       </c>
       <c r="J289" t="n">
-        <v>0.04426915104097753</v>
+        <v>0.04327384192244493</v>
       </c>
     </row>
     <row r="290">
@@ -18263,10 +18263,10 @@
         <v>8</v>
       </c>
       <c r="I290" t="n">
-        <v>0.344629079414646</v>
+        <v>0.3446641298537666</v>
       </c>
       <c r="J290" t="n">
-        <v>-0.007161134151164126</v>
+        <v>-0.007926542391958205</v>
       </c>
     </row>
     <row r="291">
@@ -18319,10 +18319,10 @@
         <v>6</v>
       </c>
       <c r="I291" t="n">
-        <v>-0.03153840796101143</v>
+        <v>-0.03145329144568373</v>
       </c>
       <c r="J291" t="n">
-        <v>0.01905947108810383</v>
+        <v>0.01862481404844564</v>
       </c>
     </row>
     <row r="292">
@@ -18375,10 +18375,10 @@
         <v>9</v>
       </c>
       <c r="I292" t="n">
-        <v>-0.002235460086071109</v>
+        <v>-0.002212261243005566</v>
       </c>
       <c r="J292" t="n">
-        <v>0.0009943305278306738</v>
+        <v>0.001024842038788023</v>
       </c>
     </row>
     <row r="293">
@@ -18427,10 +18427,10 @@
         <v>9</v>
       </c>
       <c r="I293" t="n">
-        <v>-0.0677819767695874</v>
+        <v>-0.06775301745068255</v>
       </c>
       <c r="J293" t="n">
-        <v>0.06344357296480027</v>
+        <v>0.06300587801609096</v>
       </c>
     </row>
     <row r="294">
@@ -18483,10 +18483,10 @@
         <v>6</v>
       </c>
       <c r="I294" t="n">
-        <v>-0.08629400748400565</v>
+        <v>-0.08615301775567162</v>
       </c>
       <c r="J294" t="n">
-        <v>0.1503283420607776</v>
+        <v>0.1498722707420529</v>
       </c>
     </row>
     <row r="295">
@@ -18539,10 +18539,10 @@
         <v>8</v>
       </c>
       <c r="I295" t="n">
-        <v>0.1144861040899693</v>
+        <v>0.1145384602728942</v>
       </c>
       <c r="J295" t="n">
-        <v>-0.0531558655823306</v>
+        <v>-0.05447330259647067</v>
       </c>
     </row>
     <row r="296">
@@ -18589,10 +18589,10 @@
         <v>9</v>
       </c>
       <c r="I296" t="n">
-        <v>-0.06591411781732771</v>
+        <v>-0.06589860293405787</v>
       </c>
       <c r="J296" t="n">
-        <v>0.02790669356453839</v>
+        <v>0.02810889980813027</v>
       </c>
     </row>
     <row r="297">
@@ -18661,10 +18661,10 @@
         <v>5</v>
       </c>
       <c r="I297" t="n">
-        <v>-0.2328196217702978</v>
+        <v>-0.2328229612222427</v>
       </c>
       <c r="J297" t="n">
-        <v>-0.2716713155817587</v>
+        <v>-0.2716727851650886</v>
       </c>
     </row>
     <row r="298">
@@ -18737,10 +18737,10 @@
         <v>3</v>
       </c>
       <c r="I298" t="n">
-        <v>-0.02773690313413616</v>
+        <v>-0.02771557223917161</v>
       </c>
       <c r="J298" t="n">
-        <v>-0.002724279731247157</v>
+        <v>-0.002608189013602029</v>
       </c>
     </row>
     <row r="299">
@@ -18793,10 +18793,10 @@
         <v>3</v>
       </c>
       <c r="I299" t="n">
-        <v>0.01273784209908142</v>
+        <v>0.01279625927186849</v>
       </c>
       <c r="J299" t="n">
-        <v>0.02353119090916318</v>
+        <v>0.02347864572850931</v>
       </c>
     </row>
     <row r="300">
@@ -18849,10 +18849,10 @@
         <v>8</v>
       </c>
       <c r="I300" t="n">
-        <v>0.2922069744489333</v>
+        <v>0.292266846401778</v>
       </c>
       <c r="J300" t="n">
-        <v>-0.02199625472879553</v>
+        <v>-0.02254177465676533</v>
       </c>
     </row>
     <row r="301">
@@ -18911,10 +18911,10 @@
         <v>8</v>
       </c>
       <c r="I301" t="n">
-        <v>0.3422280488042197</v>
+        <v>0.3422316417937391</v>
       </c>
       <c r="J301" t="n">
-        <v>-0.01563640727163761</v>
+        <v>-0.015494870640198</v>
       </c>
     </row>
     <row r="302">
@@ -18975,10 +18975,10 @@
         <v>1</v>
       </c>
       <c r="I302" t="n">
-        <v>0.05360759533403439</v>
+        <v>0.05364668568383021</v>
       </c>
       <c r="J302" t="n">
-        <v>0.03606417518580698</v>
+        <v>0.03645896095882382</v>
       </c>
     </row>
     <row r="303">
@@ -19063,10 +19063,10 @@
         <v>9</v>
       </c>
       <c r="I303" t="n">
-        <v>0.05095356417083712</v>
+        <v>0.05093503680716317</v>
       </c>
       <c r="J303" t="n">
-        <v>-0.01233995299096866</v>
+        <v>-0.01233978683122063</v>
       </c>
     </row>
     <row r="304">
@@ -19113,10 +19113,10 @@
         <v>7</v>
       </c>
       <c r="I304" t="n">
-        <v>0.1283178629737532</v>
+        <v>0.1283515961509731</v>
       </c>
       <c r="J304" t="n">
-        <v>-0.01010770025909923</v>
+        <v>-0.009878545562414647</v>
       </c>
     </row>
     <row r="305">
@@ -19165,10 +19165,10 @@
         <v>5</v>
       </c>
       <c r="I305" t="n">
-        <v>-0.1819132842806629</v>
+        <v>-0.1818895054105973</v>
       </c>
       <c r="J305" t="n">
-        <v>-0.2110434447512555</v>
+        <v>-0.2107836809225648</v>
       </c>
     </row>
     <row r="306">
@@ -19223,10 +19223,10 @@
         <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>-0.1624642110614623</v>
+        <v>-0.1625431947476602</v>
       </c>
       <c r="J306" t="n">
-        <v>-0.2071040982536792</v>
+        <v>-0.2074984593222797</v>
       </c>
     </row>
     <row r="307">
@@ -19285,10 +19285,10 @@
         <v>8</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2884151168351846</v>
+        <v>0.2882760247340188</v>
       </c>
       <c r="J307" t="n">
-        <v>-0.01407000836784567</v>
+        <v>-0.01240505220392342</v>
       </c>
     </row>
     <row r="308">
@@ -19361,10 +19361,10 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>0.13926488368551</v>
+        <v>0.1392822501529697</v>
       </c>
       <c r="J308" t="n">
-        <v>-0.06610106131796191</v>
+        <v>-0.06641297315947096</v>
       </c>
     </row>
     <row r="309">
@@ -19435,10 +19435,10 @@
         <v>5</v>
       </c>
       <c r="I309" t="n">
-        <v>-0.1696800770971248</v>
+        <v>-0.1696782510283539</v>
       </c>
       <c r="J309" t="n">
-        <v>-0.1996834666375535</v>
+        <v>-0.1997608487109213</v>
       </c>
     </row>
     <row r="310">
@@ -19493,10 +19493,10 @@
         <v>4</v>
       </c>
       <c r="I310" t="n">
-        <v>-0.1544274838248164</v>
+        <v>-0.1543885748372641</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2595372573091586</v>
+        <v>0.2593914115185891</v>
       </c>
     </row>
     <row r="311">
@@ -19553,10 +19553,10 @@
         <v>1</v>
       </c>
       <c r="I311" t="n">
-        <v>0.1206034317811253</v>
+        <v>0.1206024282970731</v>
       </c>
       <c r="J311" t="n">
-        <v>-0.02502775857191943</v>
+        <v>-0.02602820848167084</v>
       </c>
     </row>
     <row r="312">
@@ -19605,10 +19605,10 @@
         <v>8</v>
       </c>
       <c r="I312" t="n">
-        <v>0.07578079648683793</v>
+        <v>0.0758388574893662</v>
       </c>
       <c r="J312" t="n">
-        <v>0.04021223065999126</v>
+        <v>0.03914668748080594</v>
       </c>
     </row>
     <row r="313">
@@ -19673,10 +19673,10 @@
         <v>9</v>
       </c>
       <c r="I313" t="n">
-        <v>0.01081064352775775</v>
+        <v>0.01087245964647578</v>
       </c>
       <c r="J313" t="n">
-        <v>0.01285031409217496</v>
+        <v>0.01216436285723852</v>
       </c>
     </row>
     <row r="314">
@@ -19741,10 +19741,10 @@
         <v>4</v>
       </c>
       <c r="I314" t="n">
-        <v>-0.131905281490565</v>
+        <v>-0.1319153226369846</v>
       </c>
       <c r="J314" t="n">
-        <v>0.2356095298279516</v>
+        <v>0.2360886473390705</v>
       </c>
     </row>
     <row r="315">
@@ -19799,10 +19799,10 @@
         <v>2</v>
       </c>
       <c r="I315" t="n">
-        <v>-0.1656720559875303</v>
+        <v>-0.1656524519432637</v>
       </c>
       <c r="J315" t="n">
-        <v>-0.2192056586727555</v>
+        <v>-0.2192373379282736</v>
       </c>
     </row>
     <row r="316">
@@ -19871,10 +19871,10 @@
         <v>6</v>
       </c>
       <c r="I316" t="n">
-        <v>-0.1162391758097275</v>
+        <v>-0.1161437834786184</v>
       </c>
       <c r="J316" t="n">
-        <v>0.1944547214004944</v>
+        <v>0.1941393185951629</v>
       </c>
     </row>
     <row r="317">
@@ -19937,10 +19937,10 @@
         <v>4</v>
       </c>
       <c r="I317" t="n">
-        <v>-0.1870074561216699</v>
+        <v>-0.1870341205146396</v>
       </c>
       <c r="J317" t="n">
-        <v>0.3064290904962121</v>
+        <v>0.3064449646140479</v>
       </c>
     </row>
     <row r="318">
@@ -19989,10 +19989,10 @@
         <v>8</v>
       </c>
       <c r="I318" t="n">
-        <v>0.08746144801388664</v>
+        <v>0.08754248561673872</v>
       </c>
       <c r="J318" t="n">
-        <v>0.004977643434241215</v>
+        <v>0.003749784960969443</v>
       </c>
     </row>
     <row r="319">
@@ -20047,10 +20047,10 @@
         <v>5</v>
       </c>
       <c r="I319" t="n">
-        <v>-0.1239443718427175</v>
+        <v>-0.1239539360057058</v>
       </c>
       <c r="J319" t="n">
-        <v>-0.1254058371090422</v>
+        <v>-0.1252009648575739</v>
       </c>
     </row>
     <row r="320">
@@ -20097,10 +20097,10 @@
         <v>8</v>
       </c>
       <c r="I320" t="n">
-        <v>0.3195224034442122</v>
+        <v>0.319567460677323</v>
       </c>
       <c r="J320" t="n">
-        <v>-0.03241512517931764</v>
+        <v>-0.03227743279874908</v>
       </c>
     </row>
     <row r="321">
@@ -20155,10 +20155,10 @@
         <v>1</v>
       </c>
       <c r="I321" t="n">
-        <v>-0.03458011239496067</v>
+        <v>-0.03457055502887784</v>
       </c>
       <c r="J321" t="n">
-        <v>0.05055168547774646</v>
+        <v>0.05019293251372221</v>
       </c>
     </row>
     <row r="322">
@@ -20213,10 +20213,10 @@
         <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>-0.2217720978187089</v>
+        <v>-0.2218036504652622</v>
       </c>
       <c r="J322" t="n">
-        <v>-0.2718569337063858</v>
+        <v>-0.2721069972147617</v>
       </c>
     </row>
     <row r="323">
@@ -20271,10 +20271,10 @@
         <v>9</v>
       </c>
       <c r="I323" t="n">
-        <v>-0.08054437650885932</v>
+        <v>-0.08058427438170949</v>
       </c>
       <c r="J323" t="n">
-        <v>0.07343151867029887</v>
+        <v>0.0730516788637266</v>
       </c>
     </row>
     <row r="324">
@@ -20323,10 +20323,10 @@
         <v>9</v>
       </c>
       <c r="I324" t="n">
-        <v>0.1356113432143197</v>
+        <v>0.1356589815631359</v>
       </c>
       <c r="J324" t="n">
-        <v>-0.004217569547406142</v>
+        <v>-0.004353516689855485</v>
       </c>
     </row>
     <row r="325">
@@ -20375,10 +20375,10 @@
         <v>1</v>
       </c>
       <c r="I325" t="n">
-        <v>0.03079791266832272</v>
+        <v>0.03085570533366947</v>
       </c>
       <c r="J325" t="n">
-        <v>0.04629530902741689</v>
+        <v>0.0463228598035941</v>
       </c>
     </row>
     <row r="326">
@@ -20427,10 +20427,10 @@
         <v>9</v>
       </c>
       <c r="I326" t="n">
-        <v>-0.05292012460246082</v>
+        <v>-0.05287959567181497</v>
       </c>
       <c r="J326" t="n">
-        <v>0.0380537389008385</v>
+        <v>0.03785967180678295</v>
       </c>
     </row>
     <row r="327">
@@ -20481,10 +20481,10 @@
         <v>2</v>
       </c>
       <c r="I327" t="n">
-        <v>-0.1463852466944114</v>
+        <v>-0.1464009497761154</v>
       </c>
       <c r="J327" t="n">
-        <v>-0.06446345811681882</v>
+        <v>-0.06480619594588637</v>
       </c>
     </row>
     <row r="328">
@@ -20549,10 +20549,10 @@
         <v>9</v>
       </c>
       <c r="I328" t="n">
-        <v>-0.04619334674778749</v>
+        <v>-0.04623387652008178</v>
       </c>
       <c r="J328" t="n">
-        <v>0.09151752903509433</v>
+        <v>0.09195299724352078</v>
       </c>
     </row>
     <row r="329">
@@ -20601,10 +20601,10 @@
         <v>7</v>
       </c>
       <c r="I329" t="n">
-        <v>0.1636072531781163</v>
+        <v>0.1635823830773053</v>
       </c>
       <c r="J329" t="n">
-        <v>-0.0007043583069312872</v>
+        <v>0.0003545693968758419</v>
       </c>
     </row>
     <row r="330">
@@ -20665,10 +20665,10 @@
         <v>8</v>
       </c>
       <c r="I330" t="n">
-        <v>0.3519477741835229</v>
+        <v>0.3518754084705158</v>
       </c>
       <c r="J330" t="n">
-        <v>-0.03637880222059062</v>
+        <v>-0.03697367289481211</v>
       </c>
     </row>
     <row r="331">
@@ -20721,10 +20721,10 @@
         <v>8</v>
       </c>
       <c r="I331" t="n">
-        <v>0.2094991330814203</v>
+        <v>0.2095223859907719</v>
       </c>
       <c r="J331" t="n">
-        <v>0.006057104566804076</v>
+        <v>0.006405513968325099</v>
       </c>
     </row>
     <row r="332">
@@ -20775,10 +20775,10 @@
         <v>2</v>
       </c>
       <c r="I332" t="n">
-        <v>-0.1610131733870132</v>
+        <v>-0.1608253040371781</v>
       </c>
       <c r="J332" t="n">
-        <v>-0.1698408178430007</v>
+        <v>-0.1688675401940964</v>
       </c>
     </row>
     <row r="333">
@@ -20833,10 +20833,10 @@
         <v>7</v>
       </c>
       <c r="I333" t="n">
-        <v>0.1986742353585023</v>
+        <v>0.1985772823354321</v>
       </c>
       <c r="J333" t="n">
-        <v>-0.02769987903421152</v>
+        <v>-0.02622232162488992</v>
       </c>
     </row>
     <row r="334">
@@ -20899,10 +20899,10 @@
         <v>8</v>
       </c>
       <c r="I334" t="n">
-        <v>0.1220686331168569</v>
+        <v>0.1220849832472301</v>
       </c>
       <c r="J334" t="n">
-        <v>0.0711767859078105</v>
+        <v>0.07113375244171781</v>
       </c>
     </row>
     <row r="335">
@@ -20955,10 +20955,10 @@
         <v>6</v>
       </c>
       <c r="I335" t="n">
-        <v>-0.07161959540400417</v>
+        <v>-0.07170425971480633</v>
       </c>
       <c r="J335" t="n">
-        <v>0.08779947062656014</v>
+        <v>0.08819510992688877</v>
       </c>
     </row>
     <row r="336">
@@ -21011,10 +21011,10 @@
         <v>6</v>
       </c>
       <c r="I336" t="n">
-        <v>-0.09841433565155963</v>
+        <v>-0.09856370283759311</v>
       </c>
       <c r="J336" t="n">
-        <v>0.119987345954228</v>
+        <v>0.1207039268597399</v>
       </c>
     </row>
     <row r="337">
@@ -21089,10 +21089,10 @@
         <v>8</v>
       </c>
       <c r="I337" t="n">
-        <v>0.3105374812672257</v>
+        <v>0.310475136052758</v>
       </c>
       <c r="J337" t="n">
-        <v>-0.03452826999983525</v>
+        <v>-0.03466040712498383</v>
       </c>
     </row>
     <row r="338">
@@ -21149,10 +21149,10 @@
         <v>2</v>
       </c>
       <c r="I338" t="n">
-        <v>-0.1775489811641764</v>
+        <v>-0.1774090065026322</v>
       </c>
       <c r="J338" t="n">
-        <v>-0.2300131643507709</v>
+        <v>-0.2288759366825017</v>
       </c>
     </row>
     <row r="339">
@@ -21209,10 +21209,10 @@
         <v>2</v>
       </c>
       <c r="I339" t="n">
-        <v>-0.1804274229703665</v>
+        <v>-0.1803059696830267</v>
       </c>
       <c r="J339" t="n">
-        <v>-0.2064763399614332</v>
+        <v>-0.205930201542239</v>
       </c>
     </row>
     <row r="340">
@@ -21263,10 +21263,10 @@
         <v>6</v>
       </c>
       <c r="I340" t="n">
-        <v>-0.116117929885997</v>
+        <v>-0.1162943607648983</v>
       </c>
       <c r="J340" t="n">
-        <v>0.1414224047120436</v>
+        <v>0.1420070480883763</v>
       </c>
     </row>
     <row r="341">
@@ -21337,10 +21337,10 @@
         <v>9</v>
       </c>
       <c r="I341" t="n">
-        <v>0.2027848715993259</v>
+        <v>0.2028195599227222</v>
       </c>
       <c r="J341" t="n">
-        <v>-0.05446704391292128</v>
+        <v>-0.05507695884252925</v>
       </c>
     </row>
     <row r="342">
@@ -21383,10 +21383,10 @@
         <v>9</v>
       </c>
       <c r="I342" t="n">
-        <v>-0.05461542704694643</v>
+        <v>-0.0545693714963771</v>
       </c>
       <c r="J342" t="n">
-        <v>0.01960775103621065</v>
+        <v>0.01955231802921078</v>
       </c>
     </row>
     <row r="343">
@@ -21441,10 +21441,10 @@
         <v>4</v>
       </c>
       <c r="I343" t="n">
-        <v>-0.121866115764864</v>
+        <v>-0.1218830551365862</v>
       </c>
       <c r="J343" t="n">
-        <v>0.1806422537361216</v>
+        <v>0.1805983989306699</v>
       </c>
     </row>
     <row r="344">
@@ -21503,10 +21503,10 @@
         <v>2</v>
       </c>
       <c r="I344" t="n">
-        <v>-0.1609643627080503</v>
+        <v>-0.1608573008757142</v>
       </c>
       <c r="J344" t="n">
-        <v>-0.2208936225558584</v>
+        <v>-0.2203412466318922</v>
       </c>
     </row>
     <row r="345">
@@ -21577,10 +21577,10 @@
         <v>5</v>
       </c>
       <c r="I345" t="n">
-        <v>-0.1684341566045326</v>
+        <v>-0.1684092235545566</v>
       </c>
       <c r="J345" t="n">
-        <v>-0.1712953076870322</v>
+        <v>-0.1716638236100324</v>
       </c>
     </row>
     <row r="346">
@@ -21653,10 +21653,10 @@
         <v>9</v>
       </c>
       <c r="I346" t="n">
-        <v>0.0347100541412598</v>
+        <v>0.0347085238081906</v>
       </c>
       <c r="J346" t="n">
-        <v>-0.01615789708565771</v>
+        <v>-0.01640425959741038</v>
       </c>
     </row>
     <row r="347">
@@ -21707,10 +21707,10 @@
         <v>6</v>
       </c>
       <c r="I347" t="n">
-        <v>-0.08719342671855713</v>
+        <v>-0.08713857003187293</v>
       </c>
       <c r="J347" t="n">
-        <v>0.1385148047284303</v>
+        <v>0.1379870788839093</v>
       </c>
     </row>
     <row r="348">
@@ -21771,10 +21771,10 @@
         <v>4</v>
       </c>
       <c r="I348" t="n">
-        <v>-0.1999418013169453</v>
+        <v>-0.200021746787118</v>
       </c>
       <c r="J348" t="n">
-        <v>0.3368081217193751</v>
+        <v>0.3373147615451323</v>
       </c>
     </row>
     <row r="349">
@@ -21833,10 +21833,10 @@
         <v>2</v>
       </c>
       <c r="I349" t="n">
-        <v>-0.2322482519866973</v>
+        <v>-0.2324061969327898</v>
       </c>
       <c r="J349" t="n">
-        <v>-0.2780045634642048</v>
+        <v>-0.2783529109611368</v>
       </c>
     </row>
     <row r="350">
@@ -21893,10 +21893,10 @@
         <v>9</v>
       </c>
       <c r="I350" t="n">
-        <v>-0.07012946717299039</v>
+        <v>-0.07007144622338113</v>
       </c>
       <c r="J350" t="n">
-        <v>0.07550980247558987</v>
+        <v>0.0748726974250148</v>
       </c>
     </row>
     <row r="351">
@@ -21943,10 +21943,10 @@
         <v>9</v>
       </c>
       <c r="I351" t="n">
-        <v>0.03545948492329145</v>
+        <v>0.03546296580680485</v>
       </c>
       <c r="J351" t="n">
-        <v>0.00868541615952491</v>
+        <v>0.009255194511272767</v>
       </c>
     </row>
     <row r="352">
@@ -21999,10 +21999,10 @@
         <v>8</v>
       </c>
       <c r="I352" t="n">
-        <v>0.1549339732245837</v>
+        <v>0.1548621560787932</v>
       </c>
       <c r="J352" t="n">
-        <v>-0.008472838017166339</v>
+        <v>-0.00733395960164965</v>
       </c>
     </row>
     <row r="353">
@@ -22109,10 +22109,10 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0.06197943148650671</v>
+        <v>0.06205220078596782</v>
       </c>
       <c r="J353" t="n">
-        <v>-0.04117545247520556</v>
+        <v>-0.04195978669738901</v>
       </c>
     </row>
     <row r="354">
@@ -22207,10 +22207,10 @@
         <v>9</v>
       </c>
       <c r="I354" t="n">
-        <v>-0.1111039045921778</v>
+        <v>-0.1111438077403675</v>
       </c>
       <c r="J354" t="n">
-        <v>0.1211918374692366</v>
+        <v>0.1204636441445742</v>
       </c>
     </row>
     <row r="355">
@@ -22261,10 +22261,10 @@
         <v>7</v>
       </c>
       <c r="I355" t="n">
-        <v>0.1082500758661235</v>
+        <v>0.1083228266836981</v>
       </c>
       <c r="J355" t="n">
-        <v>-0.009674486595249155</v>
+        <v>-0.01061093134079226</v>
       </c>
     </row>
     <row r="356">
@@ -22323,10 +22323,10 @@
         <v>9</v>
       </c>
       <c r="I356" t="n">
-        <v>-0.08812487077323805</v>
+        <v>-0.08804937738120008</v>
       </c>
       <c r="J356" t="n">
-        <v>0.06821499928456198</v>
+        <v>0.06672999223448538</v>
       </c>
     </row>
     <row r="357">
@@ -22377,10 +22377,10 @@
         <v>1</v>
       </c>
       <c r="I357" t="n">
-        <v>0.08968872002033132</v>
+        <v>0.08966179175854833</v>
       </c>
       <c r="J357" t="n">
-        <v>0.02748837959135191</v>
+        <v>0.02668461978165835</v>
       </c>
     </row>
     <row r="358">
@@ -22429,10 +22429,10 @@
         <v>9</v>
       </c>
       <c r="I358" t="n">
-        <v>-0.09272081086055455</v>
+        <v>-0.09269102747846514</v>
       </c>
       <c r="J358" t="n">
-        <v>0.06714223804353142</v>
+        <v>0.06688136255392074</v>
       </c>
     </row>
     <row r="359">
@@ -22521,10 +22521,10 @@
         <v>9</v>
       </c>
       <c r="I359" t="n">
-        <v>-0.1278534869669949</v>
+        <v>-0.1279316887099713</v>
       </c>
       <c r="J359" t="n">
-        <v>0.07629633600417506</v>
+        <v>0.07690522862505844</v>
       </c>
     </row>
     <row r="360">
@@ -22571,10 +22571,10 @@
         <v>9</v>
       </c>
       <c r="I360" t="n">
-        <v>-0.01657077215351484</v>
+        <v>-0.01653268117299157</v>
       </c>
       <c r="J360" t="n">
-        <v>0.02234550335722811</v>
+        <v>0.0217393252284671</v>
       </c>
     </row>
     <row r="361">
@@ -22629,10 +22629,10 @@
         <v>2</v>
       </c>
       <c r="I361" t="n">
-        <v>-0.1992458663706099</v>
+        <v>-0.1992201939718219</v>
       </c>
       <c r="J361" t="n">
-        <v>-0.2409505316238467</v>
+        <v>-0.2406117460520988</v>
       </c>
     </row>
     <row r="362">
@@ -22693,10 +22693,10 @@
         <v>9</v>
       </c>
       <c r="I362" t="n">
-        <v>0.08923150073711911</v>
+        <v>0.08919845682384783</v>
       </c>
       <c r="J362" t="n">
-        <v>-0.0266734276076411</v>
+        <v>-0.02663346886533983</v>
       </c>
     </row>
     <row r="363">
@@ -22781,10 +22781,10 @@
         <v>1</v>
       </c>
       <c r="I363" t="n">
-        <v>-0.05507236105283741</v>
+        <v>-0.05506259778936252</v>
       </c>
       <c r="J363" t="n">
-        <v>-0.02216672142399518</v>
+        <v>-0.02243570526237302</v>
       </c>
     </row>
     <row r="364">
@@ -22831,10 +22831,10 @@
         <v>1</v>
       </c>
       <c r="I364" t="n">
-        <v>0.0134877786722683</v>
+        <v>0.01349260354769488</v>
       </c>
       <c r="J364" t="n">
-        <v>0.01317332277306693</v>
+        <v>0.01264776854052415</v>
       </c>
     </row>
     <row r="365">
@@ -22885,10 +22885,10 @@
         <v>9</v>
       </c>
       <c r="I365" t="n">
-        <v>0.03034158206505724</v>
+        <v>0.03035144742307754</v>
       </c>
       <c r="J365" t="n">
-        <v>-0.02376814355568765</v>
+        <v>-0.02392230375736995</v>
       </c>
     </row>
     <row r="366">
@@ -22937,10 +22937,10 @@
         <v>7</v>
       </c>
       <c r="I366" t="n">
-        <v>0.1802314250041969</v>
+        <v>0.1802455357724097</v>
       </c>
       <c r="J366" t="n">
-        <v>-0.009529682775367119</v>
+        <v>-0.01005606462895973</v>
       </c>
     </row>
     <row r="367">
@@ -22991,10 +22991,10 @@
         <v>8</v>
       </c>
       <c r="I367" t="n">
-        <v>0.2267330630372706</v>
+        <v>0.2266840040196812</v>
       </c>
       <c r="J367" t="n">
-        <v>-0.01188755148883344</v>
+        <v>-0.01200716060371552</v>
       </c>
     </row>
     <row r="368">
@@ -23041,10 +23041,10 @@
         <v>5</v>
       </c>
       <c r="I368" t="n">
-        <v>-0.1618887168195643</v>
+        <v>-0.1619272693700292</v>
       </c>
       <c r="J368" t="n">
-        <v>-0.1678469757012712</v>
+        <v>-0.1679562146362639</v>
       </c>
     </row>
     <row r="369">
@@ -23097,10 +23097,10 @@
         <v>9</v>
       </c>
       <c r="I369" t="n">
-        <v>-0.04819709313461931</v>
+        <v>-0.04819923702430104</v>
       </c>
       <c r="J369" t="n">
-        <v>-0.03848257440348896</v>
+        <v>-0.03811248666773364</v>
       </c>
     </row>
     <row r="370">
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>0.01536002624338007</v>
+        <v>0.01520035479112606</v>
       </c>
       <c r="J370" t="n">
-        <v>-0.01099922747427215</v>
+        <v>-0.008581336565089168</v>
       </c>
     </row>
     <row r="371">
@@ -23237,10 +23237,10 @@
         <v>9</v>
       </c>
       <c r="I371" t="n">
-        <v>-0.007573612449846332</v>
+        <v>-0.007569862403574832</v>
       </c>
       <c r="J371" t="n">
-        <v>0.005119329400805491</v>
+        <v>0.005075078547039843</v>
       </c>
     </row>
     <row r="372">
@@ -23303,10 +23303,10 @@
         <v>2</v>
       </c>
       <c r="I372" t="n">
-        <v>-0.175036722918651</v>
+        <v>-0.1751021890407686</v>
       </c>
       <c r="J372" t="n">
-        <v>-0.1977866629187373</v>
+        <v>-0.1980596278464335</v>
       </c>
     </row>
     <row r="373">
@@ -23359,10 +23359,10 @@
         <v>6</v>
       </c>
       <c r="I373" t="n">
-        <v>-0.07805573930545334</v>
+        <v>-0.07814960316752054</v>
       </c>
       <c r="J373" t="n">
-        <v>0.1079796894047612</v>
+        <v>0.1083723814757574</v>
       </c>
     </row>
     <row r="374">
@@ -23419,10 +23419,10 @@
         <v>7</v>
       </c>
       <c r="I374" t="n">
-        <v>0.2844148779047685</v>
+        <v>0.284475500253134</v>
       </c>
       <c r="J374" t="n">
-        <v>-0.006450890231653517</v>
+        <v>-0.00695191918717009</v>
       </c>
     </row>
     <row r="375">
@@ -23499,10 +23499,10 @@
         <v>9</v>
       </c>
       <c r="I375" t="n">
-        <v>0.1289698248216456</v>
+        <v>0.1289296085266115</v>
       </c>
       <c r="J375" t="n">
-        <v>0.02230519572548737</v>
+        <v>0.02237506604057161</v>
       </c>
     </row>
     <row r="376">
@@ -23553,10 +23553,10 @@
         <v>9</v>
       </c>
       <c r="I376" t="n">
-        <v>-0.07418957019040941</v>
+        <v>-0.07418740853291693</v>
       </c>
       <c r="J376" t="n">
-        <v>0.1580150870273682</v>
+        <v>0.1576089225750191</v>
       </c>
     </row>
     <row r="377">
@@ -23633,10 +23633,10 @@
         <v>1</v>
       </c>
       <c r="I377" t="n">
-        <v>-0.01104644180567169</v>
+        <v>-0.0110668620794449</v>
       </c>
       <c r="J377" t="n">
-        <v>-0.008779835585868511</v>
+        <v>-0.009084121813607158</v>
       </c>
     </row>
     <row r="378">
@@ -23687,10 +23687,10 @@
         <v>9</v>
       </c>
       <c r="I378" t="n">
-        <v>-0.02426799273999864</v>
+        <v>-0.02422397894903259</v>
       </c>
       <c r="J378" t="n">
-        <v>0.01289442894820436</v>
+        <v>0.01238846501116837</v>
       </c>
     </row>
     <row r="379">
@@ -23753,10 +23753,10 @@
         <v>4</v>
       </c>
       <c r="I379" t="n">
-        <v>-0.1843504085074326</v>
+        <v>-0.1843594074778438</v>
       </c>
       <c r="J379" t="n">
-        <v>0.2978427850728955</v>
+        <v>0.2978364624431981</v>
       </c>
     </row>
     <row r="380">
@@ -23847,10 +23847,10 @@
         <v>7</v>
       </c>
       <c r="I380" t="n">
-        <v>0.1498021052888594</v>
+        <v>0.1497955564909552</v>
       </c>
       <c r="J380" t="n">
-        <v>-0.07717771751110496</v>
+        <v>-0.07802516652699587</v>
       </c>
     </row>
     <row r="381">
@@ -23903,10 +23903,10 @@
         <v>3</v>
       </c>
       <c r="I381" t="n">
-        <v>0.07585643224970985</v>
+        <v>0.07585339300848556</v>
       </c>
       <c r="J381" t="n">
-        <v>-0.04054348311467752</v>
+        <v>-0.04054089998512279</v>
       </c>
     </row>
     <row r="382">
@@ -23973,10 +23973,10 @@
         <v>2</v>
       </c>
       <c r="I382" t="n">
-        <v>-0.2436461075648609</v>
+        <v>-0.243698896022616</v>
       </c>
       <c r="J382" t="n">
-        <v>-0.0116630940430688</v>
+        <v>-0.011389219020805</v>
       </c>
     </row>
     <row r="383">
@@ -24033,10 +24033,10 @@
         <v>1</v>
       </c>
       <c r="I383" t="n">
-        <v>0.05439841185842726</v>
+        <v>0.05433114365284031</v>
       </c>
       <c r="J383" t="n">
-        <v>0.03562317303871103</v>
+        <v>0.03622339714783513</v>
       </c>
     </row>
     <row r="384">
@@ -24125,10 +24125,10 @@
         <v>1</v>
       </c>
       <c r="I384" t="n">
-        <v>0.08591760333747485</v>
+        <v>0.0859369596344407</v>
       </c>
       <c r="J384" t="n">
-        <v>-0.0003774577663332691</v>
+        <v>-0.001624479433767245</v>
       </c>
     </row>
     <row r="385">
@@ -24217,10 +24217,10 @@
         <v>9</v>
       </c>
       <c r="I385" t="n">
-        <v>-0.0654454153013093</v>
+        <v>-0.06544201554266463</v>
       </c>
       <c r="J385" t="n">
-        <v>0.06344430802181435</v>
+        <v>0.06285562954784168</v>
       </c>
     </row>
     <row r="386">
@@ -24279,10 +24279,10 @@
         <v>1</v>
       </c>
       <c r="I386" t="n">
-        <v>-0.03164911634362058</v>
+        <v>-0.0316557705885987</v>
       </c>
       <c r="J386" t="n">
-        <v>0.06233691184050833</v>
+        <v>0.0619167918934433</v>
       </c>
     </row>
     <row r="387">
@@ -24335,10 +24335,10 @@
         <v>3</v>
       </c>
       <c r="I387" t="n">
-        <v>0.07661848842813249</v>
+        <v>0.07668833613445133</v>
       </c>
       <c r="J387" t="n">
-        <v>0.006610390152255827</v>
+        <v>0.00661983851097841</v>
       </c>
     </row>
     <row r="388">
@@ -24429,10 +24429,10 @@
         <v>6</v>
       </c>
       <c r="I388" t="n">
-        <v>-0.02340005182488767</v>
+        <v>-0.02345021562638879</v>
       </c>
       <c r="J388" t="n">
-        <v>0.0895042697263214</v>
+        <v>0.08928688478405043</v>
       </c>
     </row>
     <row r="389">
@@ -24493,10 +24493,10 @@
         <v>6</v>
       </c>
       <c r="I389" t="n">
-        <v>-0.08547299716256564</v>
+        <v>-0.08531575966027762</v>
       </c>
       <c r="J389" t="n">
-        <v>0.1079896069085137</v>
+        <v>0.1074217405086631</v>
       </c>
     </row>
     <row r="390">
@@ -24539,10 +24539,10 @@
         <v>1</v>
       </c>
       <c r="I390" t="n">
-        <v>0.1081106399223129</v>
+        <v>0.1080988198148042</v>
       </c>
       <c r="J390" t="n">
-        <v>0.0001357688444819389</v>
+        <v>-0.0004910639794525378</v>
       </c>
     </row>
     <row r="391">
@@ -24597,10 +24597,10 @@
         <v>6</v>
       </c>
       <c r="I391" t="n">
-        <v>-0.08370309801920978</v>
+        <v>-0.08369048261872246</v>
       </c>
       <c r="J391" t="n">
-        <v>0.1583245869294799</v>
+        <v>0.1579793663414367</v>
       </c>
     </row>
     <row r="392">
@@ -24651,10 +24651,10 @@
         <v>2</v>
       </c>
       <c r="I392" t="n">
-        <v>-0.1895444463023139</v>
+        <v>-0.1896185052091581</v>
       </c>
       <c r="J392" t="n">
-        <v>-0.2359004464188026</v>
+        <v>-0.2364491112880578</v>
       </c>
     </row>
     <row r="393">
@@ -24711,10 +24711,10 @@
         <v>4</v>
       </c>
       <c r="I393" t="n">
-        <v>-0.1362123920762134</v>
+        <v>-0.136247264296659</v>
       </c>
       <c r="J393" t="n">
-        <v>0.2198970549749528</v>
+        <v>0.2198377202257525</v>
       </c>
     </row>
     <row r="394">
@@ -24769,10 +24769,10 @@
         <v>8</v>
       </c>
       <c r="I394" t="n">
-        <v>0.1705046311071014</v>
+        <v>0.1704856782662671</v>
       </c>
       <c r="J394" t="n">
-        <v>-0.008559597788350734</v>
+        <v>-0.00870505142870226</v>
       </c>
     </row>
     <row r="395">
@@ -24827,10 +24827,10 @@
         <v>0</v>
       </c>
       <c r="I395" t="n">
-        <v>0.0553448008827702</v>
+        <v>0.05530284403343218</v>
       </c>
       <c r="J395" t="n">
-        <v>-0.1068129834931242</v>
+        <v>-0.1069719600212491</v>
       </c>
     </row>
     <row r="396">
@@ -24877,10 +24877,10 @@
         <v>6</v>
       </c>
       <c r="I396" t="n">
-        <v>-0.002159627926028378</v>
+        <v>-0.002059588873270258</v>
       </c>
       <c r="J396" t="n">
-        <v>0.02434024464662423</v>
+        <v>0.02402915713664688</v>
       </c>
     </row>
     <row r="397">
@@ -24963,10 +24963,10 @@
         <v>9</v>
       </c>
       <c r="I397" t="n">
-        <v>-0.07225369342562117</v>
+        <v>-0.07218253140756678</v>
       </c>
       <c r="J397" t="n">
-        <v>0.05656068665759074</v>
+        <v>0.05613005513518576</v>
       </c>
     </row>
     <row r="398">
@@ -25013,10 +25013,10 @@
         <v>3</v>
       </c>
       <c r="I398" t="n">
-        <v>0.006340267265654153</v>
+        <v>0.006389344495524457</v>
       </c>
       <c r="J398" t="n">
-        <v>-0.01410751616707026</v>
+        <v>-0.01381318075141406</v>
       </c>
     </row>
     <row r="399">
@@ -25071,10 +25071,10 @@
         <v>8</v>
       </c>
       <c r="I399" t="n">
-        <v>0.3488909320586309</v>
+        <v>0.348956708211342</v>
       </c>
       <c r="J399" t="n">
-        <v>-0.03328276191726343</v>
+        <v>-0.03346826782285557</v>
       </c>
     </row>
   </sheetData>
